--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B61BFB4-FD53-444A-8F76-CEB4A37D5119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03098CFA-D81C-4DDC-B462-60FBA1BECA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2340" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03098CFA-D81C-4DDC-B462-60FBA1BECA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965EC38-E64A-4520-95F8-AE737CDA720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="2745" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965EC38-E64A-4520-95F8-AE737CDA720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA756AE7-BF27-4AE7-9F14-41941093B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2745" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12675" yWindow="3855" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,31 +169,6 @@
             <v>2020</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
@@ -2434,6 +2410,73 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Energy, Winter"/>
+      <sheetName val="Flexibility, Winter"/>
+      <sheetName val="Secondary Reserve, Winter"/>
+      <sheetName val="Tertiary Reserve Up, Winter"/>
+      <sheetName val="Tertiary Reserve Down, Winter"/>
+      <sheetName val="Energy, Summer"/>
+      <sheetName val="Flexibility, Summer"/>
+      <sheetName val="Secondary Reserve, Summer"/>
+      <sheetName val="Tertiary Reserve Up, Summer"/>
+      <sheetName val="Tertiary Reserve Down, Summer"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2705,7 +2748,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,8 +2797,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.4859473959783542</v>
+        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
+        <v>1.1048955771867275</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2763,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -2772,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -2781,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -2790,7 +2833,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -3787,99 +3830,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>64.950760678213868</v>
+        <v>48.294985678831857</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>60.604364544977173</v>
+        <v>45.063166115560676</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>58.02996068144467</v>
+        <v>43.148934528084666</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>54.419108509217281</v>
+        <v>40.464038275520927</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>56.042506039323634</v>
+        <v>41.671136693597433</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>60.544926649138048</v>
+        <v>45.018970292473213</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>73.249776884752976</v>
+        <v>54.465827477419737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>76.660026158523294</v>
+        <v>57.001562827063275</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>80.612646231825721</v>
+        <v>59.940585062379967</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>79.999692930984651</v>
+        <v>59.484815636790437</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>78.458022507657105</v>
+        <v>58.338486475459213</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>78.075391053192675</v>
+        <v>58.053975864333623</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>75.051488102376723</v>
+        <v>55.805513364758632</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>73.992750582742147</v>
+        <v>55.018275266013099</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>72.540237003173317</v>
+        <v>53.93823983931307</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>72.685116874281192</v>
+        <v>54.045967158088771</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>73.807007158244858</v>
+        <v>54.880163318864753</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>77.455008015371718</v>
+        <v>57.592681960858172</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>81.162446768337716</v>
+        <v>60.349396425939062</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>81.786544674648624</v>
+        <v>60.813452568357491</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>79.899391481756098</v>
+        <v>59.410235185330329</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>74.880604151839208</v>
+        <v>55.678450373382162</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>67.584602437585502</v>
+        <v>50.253413089395337</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>63.435094334315941</v>
+        <v>47.167992190101394</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3888,99 +3931,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>60.656372703836418</v>
+        <v>45.101837460762219</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>57.253553167045993</v>
+        <v>42.571626589004609</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>53.546114414079987</v>
+        <v>39.814912123923719</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>51.153739106554838</v>
+        <v>38.036030244653091</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>53.999328369853401</v>
+        <v>40.151905274965678</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>56.8820663180514</v>
+        <v>42.295402694707931</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>65.678874902243265</v>
+        <v>48.836384511653357</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>68.606191272320615</v>
+        <v>51.013028798711211</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>72.038729757030623</v>
+        <v>53.565337582012553</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>72.521662660723578</v>
+        <v>53.924428644598237</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>70.433906569374003</v>
+        <v>52.372050358650888</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>68.985107858295095</v>
+        <v>51.294777170893823</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>66.87506255600583</v>
+        <v>49.725825451288664</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>66.169237542916122</v>
+        <v>49.201000052124975</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>63.219631961899083</v>
+        <v>47.007782331409324</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>62.721839584246332</v>
+        <v>46.637642313051771</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>64.014613818747492</v>
+        <v>47.598901465204221</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>70.582501308971828</v>
+        <v>52.482539916369554</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>73.896164002003559</v>
+        <v>54.946457053495962</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>75.055202970866674</v>
+        <v>55.80827560370161</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>75.471268241740617</v>
+        <v>56.117646365313888</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>72.120456863809423</v>
+        <v>53.626106838757813</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>65.31481779022856</v>
+        <v>48.565685095242607</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>61.978865886257154</v>
+        <v>46.085194524458402</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3989,99 +4032,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>69.245148652591311</v>
+        <v>51.488133896901502</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>63.955175922908367</v>
+        <v>47.554705642116751</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>62.513806948809361</v>
+        <v>46.482956932245628</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>57.684477911879711</v>
+        <v>42.892046306388764</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>58.085683708793873</v>
+        <v>43.19036811222918</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>64.207786980224682</v>
+        <v>47.742537890238495</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>80.820678867262686</v>
+        <v>60.095270443186109</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>84.713861044725974</v>
+        <v>62.990096855415331</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>89.186562706620819</v>
+        <v>66.315832542747387</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>87.477723201245709</v>
+        <v>65.045202628982651</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>86.482138445940222</v>
+        <v>64.304922592267545</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>87.165674248090255</v>
+        <v>64.813174557773436</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>83.227913648747617</v>
+        <v>61.885201278228607</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>81.816263622568187</v>
+        <v>60.835550479901215</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>81.860842044447537</v>
+        <v>60.868697347216823</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>82.648394164316059</v>
+        <v>61.454292003125779</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>83.599400497742209</v>
+        <v>62.161425172525284</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>84.327514721771607</v>
+        <v>62.702824005346784</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>88.428729534671859</v>
+        <v>65.752335798382148</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>88.517886378430561</v>
+        <v>65.81862953301335</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>84.327514721771607</v>
+        <v>62.702824005346784</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>77.640751439869007</v>
+        <v>57.730793908006511</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>69.854387084942431</v>
+        <v>51.941141083548054</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>64.891322782374729</v>
+        <v>48.250789855744394</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4235,99 +4278,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>77.940912813856627</v>
+        <v>57.953982814598227</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>72.725237453972596</v>
+        <v>54.075799338672809</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>69.63595281773361</v>
+        <v>51.778721433701612</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>65.30293021106074</v>
+        <v>48.556845930625116</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>67.251007247188355</v>
+        <v>50.005364032316912</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>72.653911978965667</v>
+        <v>54.022764350967861</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>87.899732261703548</v>
+        <v>65.358992972903664</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>91.99203139022795</v>
+        <v>68.40187539247593</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>96.735175478190854</v>
+        <v>71.928702074855948</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>95.999631517181555</v>
+        <v>71.381778764148521</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>94.149627009188549</v>
+        <v>70.006183770551075</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>93.690469263831204</v>
+        <v>69.664771037200353</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>90.061785722852051</v>
+        <v>66.966616037710352</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>88.791300699290559</v>
+        <v>66.021930319215699</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>87.048284403807969</v>
+        <v>64.725887807175681</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>87.222140249137425</v>
+        <v>64.855160589706529</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>88.568408589893821</v>
+        <v>65.856195982637701</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>92.946009618446055</v>
+        <v>69.111218353029798</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>97.394936122005248</v>
+        <v>72.419275711126858</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>98.143853609578343</v>
+        <v>72.976143082028983</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>95.879269778107329</v>
+        <v>71.292282222396409</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>89.856724982207069</v>
+        <v>66.814140448058595</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>81.101522925102586</v>
+        <v>60.304095707274392</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>76.122113201179118</v>
+        <v>56.60159062812167</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4336,99 +4379,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>77.940912813856627</v>
+        <v>57.953982814598227</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>72.725237453972596</v>
+        <v>54.075799338672809</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>69.63595281773361</v>
+        <v>51.778721433701612</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>65.30293021106074</v>
+        <v>48.556845930625116</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>67.251007247188355</v>
+        <v>50.005364032316912</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>72.653911978965667</v>
+        <v>54.022764350967861</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>87.899732261703548</v>
+        <v>65.358992972903664</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>91.99203139022795</v>
+        <v>68.40187539247593</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>96.735175478190854</v>
+        <v>71.928702074855948</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>95.999631517181555</v>
+        <v>71.381778764148521</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>94.149627009188549</v>
+        <v>70.006183770551075</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>93.690469263831204</v>
+        <v>69.664771037200353</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>90.061785722852051</v>
+        <v>66.966616037710352</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>88.791300699290559</v>
+        <v>66.021930319215699</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>87.048284403807969</v>
+        <v>64.725887807175681</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>87.222140249137425</v>
+        <v>64.855160589706529</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>88.568408589893821</v>
+        <v>65.856195982637701</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>92.946009618446055</v>
+        <v>69.111218353029798</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>97.394936122005248</v>
+        <v>72.419275711126858</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>98.143853609578343</v>
+        <v>72.976143082028983</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>95.879269778107329</v>
+        <v>71.292282222396409</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>89.856724982207069</v>
+        <v>66.814140448058595</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>81.101522925102586</v>
+        <v>60.304095707274392</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>76.122113201179118</v>
+        <v>56.60159062812167</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4437,99 +4480,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>77.940912813856627</v>
+        <v>57.953982814598227</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>72.725237453972596</v>
+        <v>54.075799338672809</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>69.63595281773361</v>
+        <v>51.778721433701612</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>65.30293021106074</v>
+        <v>48.556845930625116</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>67.251007247188355</v>
+        <v>50.005364032316912</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>72.653911978965667</v>
+        <v>54.022764350967861</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>87.899732261703548</v>
+        <v>65.358992972903664</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>91.99203139022795</v>
+        <v>68.40187539247593</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>96.735175478190854</v>
+        <v>71.928702074855948</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>95.999631517181555</v>
+        <v>71.381778764148521</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>94.149627009188549</v>
+        <v>70.006183770551075</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>93.690469263831204</v>
+        <v>69.664771037200353</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>90.061785722852051</v>
+        <v>66.966616037710352</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>88.791300699290559</v>
+        <v>66.021930319215699</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>87.048284403807969</v>
+        <v>64.725887807175681</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>87.222140249137425</v>
+        <v>64.855160589706529</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>88.568408589893821</v>
+        <v>65.856195982637701</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>92.946009618446055</v>
+        <v>69.111218353029798</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>97.394936122005248</v>
+        <v>72.419275711126858</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>98.143853609578343</v>
+        <v>72.976143082028983</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>95.879269778107329</v>
+        <v>71.292282222396409</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>89.856724982207069</v>
+        <v>66.814140448058595</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>81.101522925102586</v>
+        <v>60.304095707274392</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>76.122113201179118</v>
+        <v>56.60159062812167</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6050,99 +6093,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>55.381259448113269</v>
+        <v>41.179458161749338</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>50.537070937223824</v>
+        <v>37.577498580120597</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>48.397306687014996</v>
+        <v>35.986448948971713</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>47.520597723387766</v>
+        <v>35.334560558431548</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>47.743489832784526</v>
+        <v>35.50029489500956</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>54.043906791732738</v>
+        <v>40.185052142281279</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>56.332265781539405</v>
+        <v>41.886591331148836</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>56.332265781539405</v>
+        <v>41.886591331148836</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>59.200144255777637</v>
+        <v>44.019039795119227</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>59.348738995375463</v>
+        <v>44.129529352837892</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>59.200144255777637</v>
+        <v>44.019039795119227</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>59.452755313093952</v>
+        <v>44.206872043240963</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>58.605765297386284</v>
+        <v>43.57708156424453</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>58.234278448391699</v>
+        <v>43.300857669947845</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>57.015801583689445</v>
+        <v>42.394843296654727</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>55.262383656434992</v>
+        <v>41.09106651557439</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>51.978439911322823</v>
+        <v>38.649247289991727</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>55.529854187711095</v>
+        <v>41.289947719468003</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>57.654758963960141</v>
+        <v>42.869948394845025</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>59.289301099536331</v>
+        <v>44.085333529750422</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>58.011386338994946</v>
+        <v>43.13512333336984</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>59.200144255777637</v>
+        <v>44.019039795119227</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>59.08126846409936</v>
+        <v>43.930648148944286</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>56.674033682614429</v>
+        <v>42.140717313901789</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6151,99 +6194,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>58.962392672421096</v>
+        <v>43.842256502769345</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>52.0081588592424</v>
+        <v>38.671345201535459</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>56.763190526373137</v>
+        <v>42.207011048532991</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>54.831458911601267</v>
+        <v>40.770646798190242</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>55.8864815627459</v>
+        <v>41.555122657992818</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>56.763190526373137</v>
+        <v>42.207011048532991</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>55.292102604354561</v>
+        <v>41.113164427118129</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>59.705366370410275</v>
+        <v>44.394704291362707</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>63.657986443712701</v>
+        <v>47.333726526679406</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>63.940316448948586</v>
+        <v>47.543656686344882</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>64.564414355259501</v>
+        <v>48.00771282876331</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>65.782891219961741</v>
+        <v>48.913727202056428</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>66.823054397146592</v>
+        <v>49.687154106087135</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>68.561612850441264</v>
+        <v>50.97988193139561</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>65.961204907479143</v>
+        <v>49.046314671318832</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>63.910597501029009</v>
+        <v>47.52155877480115</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>63.687705391632264</v>
+        <v>47.355824438223138</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>64.98047962613343</v>
+        <v>48.317083590375589</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>65.337107001168235</v>
+        <v>48.582258528900404</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>66.719038079428103</v>
+        <v>49.609811415684064</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>67.536309147216201</v>
+        <v>50.217503983136766</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>68.576472324401053</v>
+        <v>50.990930887167472</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>66.823054397146592</v>
+        <v>49.687154106087135</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>63.152764329080057</v>
+        <v>46.958062030435919</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6252,99 +6295,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>49.61578355171725</v>
+        <v>36.892463322264831</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>45.796898744052875</v>
+        <v>34.052881688894942</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>42.929020269814657</v>
+        <v>31.920433224924558</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>42.24548446766461</v>
+        <v>31.412181259418663</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>43.701712915723398</v>
+        <v>32.494978925061659</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>51.1017309476956</v>
+        <v>37.997358899451562</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>67.224260194060747</v>
+        <v>49.985475911927551</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>63.776862235390965</v>
+        <v>47.422118172854347</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>66.68931913150854</v>
+        <v>49.587713504140332</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>65.827469641841091</v>
+        <v>48.946874069372022</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>61.013000078871229</v>
+        <v>45.367012399287034</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>59.289301099536331</v>
+        <v>44.085333529750422</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>65.649155954323689</v>
+        <v>48.814286600109618</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>67.135103350302046</v>
+        <v>49.919182177296349</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>66.68931913150854</v>
+        <v>49.587713504140332</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>65.901767011640018</v>
+        <v>49.002118848231369</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>65.901767011640018</v>
+        <v>49.002118848231369</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>66.68931913150854</v>
+        <v>49.587713504140332</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>68.621050746280403</v>
+        <v>51.024077754483073</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>71.147161319443612</v>
+        <v>52.902400235700512</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>76.050787726172175</v>
+        <v>56.548555640416716</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>82.752410482034549</v>
+        <v>61.531634693528851</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>75.441549293821055</v>
+        <v>56.095548453770157</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>66.867632819025943</v>
+        <v>49.720300973402736</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6498,99 +6541,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>65.58377426890064</v>
+        <v>48.765671194713406</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>59.336851416207637</v>
+        <v>44.120690188220394</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>59.235806993281116</v>
+        <v>44.045557288971708</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>57.83901644106146</v>
+        <v>43.006955446416178</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>58.932673724501534</v>
+        <v>43.820158591225614</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>64.763531306320587</v>
+        <v>48.155768836106326</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>71.539451431981888</v>
+        <v>53.194092668077815</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>71.925797754936255</v>
+        <v>53.481365518146355</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>75.818979932399543</v>
+        <v>56.376191930375583</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>75.64661003446605</v>
+        <v>56.248024043421914</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>73.911023475963347</v>
+        <v>54.957506009267824</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>73.809979053036813</v>
+        <v>54.882373110019131</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>76.431190259542632</v>
+        <v>56.831408908176513</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>77.572397859653989</v>
+        <v>57.679968711455913</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>75.866530249070834</v>
+        <v>56.411548588845548</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>74.029899267641582</v>
+        <v>55.045897655442751</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>72.627164925838045</v>
+        <v>54.002876230578487</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>74.879861178141226</v>
+        <v>55.67789792559357</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>76.645166684563492</v>
+        <v>56.990513871291391</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>78.862200199363215</v>
+        <v>58.639018072453993</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>80.639393284953329</v>
+        <v>59.960473182769327</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>84.211610824885284</v>
+        <v>62.616642150326214</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>80.538348862026794</v>
+        <v>59.885340283520627</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>74.677772332288171</v>
+        <v>55.527632127096176</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6599,99 +6642,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>65.58377426890064</v>
+        <v>48.765671194713406</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>59.336851416207637</v>
+        <v>44.120690188220394</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>59.235806993281116</v>
+        <v>44.045557288971708</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>57.83901644106146</v>
+        <v>43.006955446416178</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>58.932673724501534</v>
+        <v>43.820158591225614</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>64.763531306320587</v>
+        <v>48.155768836106326</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>71.539451431981888</v>
+        <v>53.194092668077815</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>71.925797754936255</v>
+        <v>53.481365518146355</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>75.818979932399543</v>
+        <v>56.376191930375583</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>75.64661003446605</v>
+        <v>56.248024043421914</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>73.911023475963347</v>
+        <v>54.957506009267824</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>73.809979053036813</v>
+        <v>54.882373110019131</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>76.431190259542632</v>
+        <v>56.831408908176513</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>77.572397859653989</v>
+        <v>57.679968711455913</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>75.866530249070834</v>
+        <v>56.411548588845548</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>74.029899267641582</v>
+        <v>55.045897655442751</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>72.627164925838045</v>
+        <v>54.002876230578487</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>74.879861178141226</v>
+        <v>55.67789792559357</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>76.645166684563492</v>
+        <v>56.990513871291391</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>78.862200199363215</v>
+        <v>58.639018072453993</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>80.639393284953329</v>
+        <v>59.960473182769327</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>84.211610824885284</v>
+        <v>62.616642150326214</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>80.538348862026794</v>
+        <v>59.885340283520627</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>74.677772332288171</v>
+        <v>55.527632127096176</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6700,99 +6743,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>65.58377426890064</v>
+        <v>48.765671194713406</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>59.336851416207637</v>
+        <v>44.120690188220394</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>59.235806993281116</v>
+        <v>44.045557288971708</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>57.83901644106146</v>
+        <v>43.006955446416178</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>58.932673724501534</v>
+        <v>43.820158591225614</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>64.763531306320587</v>
+        <v>48.155768836106326</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>71.539451431981888</v>
+        <v>53.194092668077815</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>71.925797754936255</v>
+        <v>53.481365518146355</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>75.818979932399543</v>
+        <v>56.376191930375583</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>75.64661003446605</v>
+        <v>56.248024043421914</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>73.911023475963347</v>
+        <v>54.957506009267824</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>73.809979053036813</v>
+        <v>54.882373110019131</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>76.431190259542632</v>
+        <v>56.831408908176513</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>77.572397859653989</v>
+        <v>57.679968711455913</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>75.866530249070834</v>
+        <v>56.411548588845548</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>74.029899267641582</v>
+        <v>55.045897655442751</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>72.627164925838045</v>
+        <v>54.002876230578487</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>74.879861178141226</v>
+        <v>55.67789792559357</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>76.645166684563492</v>
+        <v>56.990513871291391</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>78.862200199363215</v>
+        <v>58.639018072453993</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>80.639393284953329</v>
+        <v>59.960473182769327</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>84.211610824885284</v>
+        <v>62.616642150326214</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>80.538348862026794</v>
+        <v>59.885340283520627</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>74.677772332288171</v>
+        <v>55.527632127096176</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA756AE7-BF27-4AE7-9F14-41941093B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E3E65-D933-42A7-8138-FC4E079271EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="3855" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25215" yWindow="4380" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -169,2247 +169,42 @@
             <v>2020</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>43.71</v>
-          </cell>
-          <cell r="C2">
-            <v>40.784999999999997</v>
-          </cell>
-          <cell r="D2">
-            <v>39.052499999999995</v>
-          </cell>
-          <cell r="E2">
-            <v>36.622500000000002</v>
-          </cell>
-          <cell r="F2">
-            <v>37.715000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>40.745000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>49.295000000000002</v>
-          </cell>
-          <cell r="I2">
-            <v>51.59</v>
-          </cell>
-          <cell r="J2">
-            <v>54.25</v>
-          </cell>
-          <cell r="K2">
-            <v>53.837499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>52.800000000000004</v>
-          </cell>
-          <cell r="M2">
-            <v>52.542499999999997</v>
-          </cell>
-          <cell r="N2">
-            <v>50.507499999999993</v>
-          </cell>
-          <cell r="O2">
-            <v>49.795000000000002</v>
-          </cell>
-          <cell r="P2">
-            <v>48.817500000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>48.914999999999999</v>
-          </cell>
-          <cell r="R2">
-            <v>49.67</v>
-          </cell>
-          <cell r="S2">
-            <v>52.125</v>
-          </cell>
-          <cell r="T2">
-            <v>54.620000000000005</v>
-          </cell>
-          <cell r="U2">
-            <v>55.040000000000006</v>
-          </cell>
-          <cell r="V2">
-            <v>53.769999999999996</v>
-          </cell>
-          <cell r="W2">
-            <v>50.392499999999998</v>
-          </cell>
-          <cell r="X2">
-            <v>45.482500000000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>42.69</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>40.82</v>
-          </cell>
-          <cell r="C3">
-            <v>38.53</v>
-          </cell>
-          <cell r="D3">
-            <v>36.034999999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>34.424999999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>36.340000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>38.28</v>
-          </cell>
-          <cell r="H3">
-            <v>44.2</v>
-          </cell>
-          <cell r="I3">
-            <v>46.17</v>
-          </cell>
-          <cell r="J3">
-            <v>48.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>48.805</v>
-          </cell>
-          <cell r="L3">
-            <v>47.400000000000006</v>
-          </cell>
-          <cell r="M3">
-            <v>46.424999999999997</v>
-          </cell>
-          <cell r="N3">
-            <v>45.004999999999995</v>
-          </cell>
-          <cell r="O3">
-            <v>44.53</v>
-          </cell>
-          <cell r="P3">
-            <v>42.545000000000002</v>
-          </cell>
-          <cell r="Q3">
-            <v>42.21</v>
-          </cell>
-          <cell r="R3">
-            <v>43.08</v>
-          </cell>
-          <cell r="S3">
-            <v>47.5</v>
-          </cell>
-          <cell r="T3">
-            <v>49.730000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>50.510000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>50.79</v>
-          </cell>
-          <cell r="W3">
-            <v>48.534999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>43.954999999999998</v>
-          </cell>
-          <cell r="Y3">
-            <v>41.71</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="B4">
-            <v>46.6</v>
-          </cell>
-          <cell r="C4">
-            <v>43.04</v>
-          </cell>
-          <cell r="D4">
-            <v>42.07</v>
-          </cell>
-          <cell r="E4">
-            <v>38.82</v>
-          </cell>
-          <cell r="F4">
-            <v>39.090000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>43.21</v>
-          </cell>
-          <cell r="H4">
-            <v>54.39</v>
-          </cell>
-          <cell r="I4">
-            <v>57.01</v>
-          </cell>
-          <cell r="J4">
-            <v>60.02</v>
-          </cell>
-          <cell r="K4">
-            <v>58.87</v>
-          </cell>
-          <cell r="L4">
-            <v>58.2</v>
-          </cell>
-          <cell r="M4">
-            <v>58.66</v>
-          </cell>
-          <cell r="N4">
-            <v>56.01</v>
-          </cell>
-          <cell r="O4">
-            <v>55.06</v>
-          </cell>
-          <cell r="P4">
-            <v>55.09</v>
-          </cell>
-          <cell r="Q4">
-            <v>55.62</v>
-          </cell>
-          <cell r="R4">
-            <v>56.26</v>
-          </cell>
-          <cell r="S4">
-            <v>56.75</v>
-          </cell>
-          <cell r="T4">
-            <v>59.51</v>
-          </cell>
-          <cell r="U4">
-            <v>59.57</v>
-          </cell>
-          <cell r="V4">
-            <v>56.75</v>
-          </cell>
-          <cell r="W4">
-            <v>52.25</v>
-          </cell>
-          <cell r="X4">
-            <v>47.01</v>
-          </cell>
-          <cell r="Y4">
-            <v>43.67</v>
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C2">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D2">
-            <v>46.863</v>
-          </cell>
-          <cell r="E2">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F2">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I2">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K2">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M2">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N2">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O2">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P2">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R2">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S2">
-            <v>62.55</v>
-          </cell>
-          <cell r="T2">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V2">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X2">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y2">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C3">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D3">
-            <v>46.863</v>
-          </cell>
-          <cell r="E3">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F3">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H3">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I3">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J3">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K3">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L3">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M3">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O3">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P3">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q3">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R3">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S3">
-            <v>62.55</v>
-          </cell>
-          <cell r="T3">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U3">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V3">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X3">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y3">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C4">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D4">
-            <v>46.863</v>
-          </cell>
-          <cell r="E4">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F4">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H4">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I4">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J4">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K4">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L4">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M4">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N4">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O4">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P4">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q4">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R4">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S4">
-            <v>62.55</v>
-          </cell>
-          <cell r="T4">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U4">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V4">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X4">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y4">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>25.342275000000001</v>
-          </cell>
-          <cell r="C2">
-            <v>24.594854999999999</v>
-          </cell>
-          <cell r="D2">
-            <v>27.759217499999998</v>
-          </cell>
-          <cell r="E2">
-            <v>30.54975</v>
-          </cell>
-          <cell r="F2">
-            <v>32.125005000000002</v>
-          </cell>
-          <cell r="G2">
-            <v>29.361535</v>
-          </cell>
-          <cell r="H2">
-            <v>27.199200000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>29.454137500000002</v>
-          </cell>
-          <cell r="J2">
-            <v>25.75685</v>
-          </cell>
-          <cell r="K2">
-            <v>23.352209999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>22.9788</v>
-          </cell>
-          <cell r="M2">
-            <v>20.269462499999999</v>
-          </cell>
-          <cell r="N2">
-            <v>22.549799999999994</v>
-          </cell>
-          <cell r="O2">
-            <v>18.743400000000001</v>
-          </cell>
-          <cell r="P2">
-            <v>19.593999999999998</v>
-          </cell>
-          <cell r="Q2">
-            <v>16.172449999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>12.758287500000002</v>
-          </cell>
-          <cell r="S2">
-            <v>14.871139999999999</v>
-          </cell>
-          <cell r="T2">
-            <v>10.08586</v>
-          </cell>
-          <cell r="U2">
-            <v>8.7737250000000007</v>
-          </cell>
-          <cell r="V2">
-            <v>9.8389550000000003</v>
-          </cell>
-          <cell r="W2">
-            <v>13.74175</v>
-          </cell>
-          <cell r="X2">
-            <v>16.117327500000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>14.23521</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>20.34</v>
-          </cell>
-          <cell r="C3">
-            <v>21.39</v>
-          </cell>
-          <cell r="D3">
-            <v>29.287499999999998</v>
-          </cell>
-          <cell r="E3">
-            <v>33.202500000000001</v>
-          </cell>
-          <cell r="F3">
-            <v>36.134999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>35.917500000000004</v>
-          </cell>
-          <cell r="H3">
-            <v>35.67</v>
-          </cell>
-          <cell r="I3">
-            <v>37.387500000000003</v>
-          </cell>
-          <cell r="J3">
-            <v>34.799999999999997</v>
-          </cell>
-          <cell r="K3">
-            <v>30.075000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>30.93</v>
-          </cell>
-          <cell r="M3">
-            <v>25.297499999999999</v>
-          </cell>
-          <cell r="N3">
-            <v>28.83</v>
-          </cell>
-          <cell r="O3">
-            <v>21.509999999999998</v>
-          </cell>
-          <cell r="P3">
-            <v>22.65</v>
-          </cell>
-          <cell r="Q3">
-            <v>20.34</v>
-          </cell>
-          <cell r="R3">
-            <v>13.642500000000002</v>
-          </cell>
-          <cell r="S3">
-            <v>17.009999999999998</v>
-          </cell>
-          <cell r="T3">
-            <v>11.115</v>
-          </cell>
-          <cell r="U3">
-            <v>9.75</v>
-          </cell>
-          <cell r="V3">
-            <v>10.8825</v>
-          </cell>
-          <cell r="W3">
-            <v>12.78</v>
-          </cell>
-          <cell r="X3">
-            <v>13.657500000000001</v>
-          </cell>
-          <cell r="Y3">
-            <v>10.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>27.930999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>26.366999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>27.948</v>
-          </cell>
-          <cell r="E4">
-            <v>27.896999999999998</v>
-          </cell>
-          <cell r="F4">
-            <v>28.764000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>24.003999999999998</v>
-          </cell>
-          <cell r="H4">
-            <v>20.994999999999997</v>
-          </cell>
-          <cell r="I4">
-            <v>19.805</v>
-          </cell>
-          <cell r="J4">
-            <v>17.764999999999997</v>
-          </cell>
-          <cell r="K4">
-            <v>16.166999999999998</v>
-          </cell>
-          <cell r="L4">
-            <v>13.26</v>
-          </cell>
-          <cell r="M4">
-            <v>13.311</v>
-          </cell>
-          <cell r="N4">
-            <v>14.535</v>
-          </cell>
-          <cell r="O4">
-            <v>14.535</v>
-          </cell>
-          <cell r="P4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>12.664999999999999</v>
-          </cell>
-          <cell r="R4">
-            <v>10.658999999999999</v>
-          </cell>
-          <cell r="S4">
-            <v>11.866</v>
-          </cell>
-          <cell r="T4">
-            <v>8.8569999999999993</v>
-          </cell>
-          <cell r="U4">
-            <v>8.7210000000000001</v>
-          </cell>
-          <cell r="V4">
-            <v>9.1969999999999992</v>
-          </cell>
-          <cell r="W4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="X4">
-            <v>18.257999999999999</v>
-          </cell>
-          <cell r="Y4">
-            <v>18.257999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>50.01</v>
-          </cell>
-          <cell r="C2">
-            <v>45</v>
-          </cell>
-          <cell r="D2">
-            <v>49</v>
-          </cell>
-          <cell r="E2">
-            <v>37.31</v>
-          </cell>
-          <cell r="F2">
-            <v>37.31</v>
-          </cell>
-          <cell r="G2">
-            <v>48</v>
-          </cell>
-          <cell r="H2">
-            <v>50.01</v>
-          </cell>
-          <cell r="I2">
-            <v>50.01</v>
-          </cell>
-          <cell r="J2">
-            <v>48</v>
-          </cell>
-          <cell r="K2">
-            <v>46.88</v>
-          </cell>
-          <cell r="L2">
-            <v>47.88</v>
-          </cell>
-          <cell r="M2">
-            <v>47.88</v>
-          </cell>
-          <cell r="N2">
-            <v>47.88</v>
-          </cell>
-          <cell r="O2">
-            <v>47.88</v>
-          </cell>
-          <cell r="P2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.88</v>
-          </cell>
-          <cell r="R2">
-            <v>47.88</v>
-          </cell>
-          <cell r="S2">
-            <v>47.88</v>
-          </cell>
-          <cell r="T2">
-            <v>47.88</v>
-          </cell>
-          <cell r="U2">
-            <v>47.88</v>
-          </cell>
-          <cell r="V2">
-            <v>47.88</v>
-          </cell>
-          <cell r="W2">
-            <v>47.88</v>
-          </cell>
-          <cell r="X2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.88</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.67</v>
-          </cell>
-          <cell r="C3">
-            <v>32.44</v>
-          </cell>
-          <cell r="D3">
-            <v>32.44</v>
-          </cell>
-          <cell r="E3">
-            <v>32.44</v>
-          </cell>
-          <cell r="F3">
-            <v>32.44</v>
-          </cell>
-          <cell r="G3">
-            <v>32.44</v>
-          </cell>
-          <cell r="H3">
-            <v>32.44</v>
-          </cell>
-          <cell r="I3">
-            <v>32.44</v>
-          </cell>
-          <cell r="J3">
-            <v>47.67</v>
-          </cell>
-          <cell r="K3">
-            <v>36.44</v>
-          </cell>
-          <cell r="L3">
-            <v>37.44</v>
-          </cell>
-          <cell r="M3">
-            <v>37.44</v>
-          </cell>
-          <cell r="N3">
-            <v>37.44</v>
-          </cell>
-          <cell r="O3">
-            <v>37.44</v>
-          </cell>
-          <cell r="P3">
-            <v>37.44</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.69</v>
-          </cell>
-          <cell r="R3">
-            <v>47.67</v>
-          </cell>
-          <cell r="S3">
-            <v>44.4</v>
-          </cell>
-          <cell r="T3">
-            <v>44.4</v>
-          </cell>
-          <cell r="U3">
-            <v>44.4</v>
-          </cell>
-          <cell r="V3">
-            <v>44.4</v>
-          </cell>
-          <cell r="W3">
-            <v>47.67</v>
-          </cell>
-          <cell r="X3">
-            <v>47.67</v>
-          </cell>
-          <cell r="Y3">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>55</v>
-          </cell>
-          <cell r="C4">
-            <v>56.99</v>
-          </cell>
-          <cell r="D4">
-            <v>56.99</v>
-          </cell>
-          <cell r="E4">
-            <v>55</v>
-          </cell>
-          <cell r="F4">
-            <v>55</v>
-          </cell>
-          <cell r="G4">
-            <v>55</v>
-          </cell>
-          <cell r="H4">
-            <v>56.99</v>
-          </cell>
-          <cell r="I4">
-            <v>56.99</v>
-          </cell>
-          <cell r="J4">
-            <v>55</v>
-          </cell>
-          <cell r="K4">
-            <v>55</v>
-          </cell>
-          <cell r="L4">
-            <v>55</v>
-          </cell>
-          <cell r="M4">
-            <v>55</v>
-          </cell>
-          <cell r="N4">
-            <v>59.95</v>
-          </cell>
-          <cell r="O4">
-            <v>59.95</v>
-          </cell>
-          <cell r="P4">
-            <v>59.95</v>
-          </cell>
-          <cell r="Q4">
-            <v>59.95</v>
-          </cell>
-          <cell r="R4">
-            <v>59.95</v>
-          </cell>
-          <cell r="S4">
-            <v>55</v>
-          </cell>
-          <cell r="T4">
-            <v>55</v>
-          </cell>
-          <cell r="U4">
-            <v>55</v>
-          </cell>
-          <cell r="V4">
-            <v>55</v>
-          </cell>
-          <cell r="W4">
-            <v>55</v>
-          </cell>
-          <cell r="X4">
-            <v>55</v>
-          </cell>
-          <cell r="Y4">
-            <v>55</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>24.97</v>
-          </cell>
-          <cell r="C2">
-            <v>24.97</v>
-          </cell>
-          <cell r="D2">
-            <v>24.97</v>
-          </cell>
-          <cell r="E2">
-            <v>25.97</v>
-          </cell>
-          <cell r="F2">
-            <v>25.97</v>
-          </cell>
-          <cell r="G2">
-            <v>24.97</v>
-          </cell>
-          <cell r="H2">
-            <v>29.75</v>
-          </cell>
-          <cell r="I2">
-            <v>29.75</v>
-          </cell>
-          <cell r="J2">
-            <v>24.97</v>
-          </cell>
-          <cell r="K2">
-            <v>29.75</v>
-          </cell>
-          <cell r="L2">
-            <v>24.97</v>
-          </cell>
-          <cell r="M2">
-            <v>24.97</v>
-          </cell>
-          <cell r="N2">
-            <v>24.97</v>
-          </cell>
-          <cell r="O2">
-            <v>25.01</v>
-          </cell>
-          <cell r="P2">
-            <v>24.97</v>
-          </cell>
-          <cell r="Q2">
-            <v>24.97</v>
-          </cell>
-          <cell r="R2">
-            <v>29.75</v>
-          </cell>
-          <cell r="S2">
-            <v>29.75</v>
-          </cell>
-          <cell r="T2">
-            <v>29.75</v>
-          </cell>
-          <cell r="U2">
-            <v>29.75</v>
-          </cell>
-          <cell r="V2">
-            <v>29.75</v>
-          </cell>
-          <cell r="W2">
-            <v>29.75</v>
-          </cell>
-          <cell r="X2">
-            <v>29.75</v>
-          </cell>
-          <cell r="Y2">
-            <v>29.75</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>28.36</v>
-          </cell>
-          <cell r="C3">
-            <v>28.36</v>
-          </cell>
-          <cell r="D3">
-            <v>27.234999999999999</v>
-          </cell>
-          <cell r="E3">
-            <v>28.86</v>
-          </cell>
-          <cell r="F3">
-            <v>28.86</v>
-          </cell>
-          <cell r="G3">
-            <v>28.36</v>
-          </cell>
-          <cell r="H3">
-            <v>37.325000000000003</v>
-          </cell>
-          <cell r="I3">
-            <v>30.75</v>
-          </cell>
-          <cell r="J3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>34.879999999999995</v>
-          </cell>
-          <cell r="L3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="M3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="O3">
-            <v>32.5</v>
-          </cell>
-          <cell r="P3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="Q3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="R3">
-            <v>34.885000000000005</v>
-          </cell>
-          <cell r="S3">
-            <v>36.875</v>
-          </cell>
-          <cell r="T3">
-            <v>36.875</v>
-          </cell>
-          <cell r="U3">
-            <v>36.875</v>
-          </cell>
-          <cell r="V3">
-            <v>36.875</v>
-          </cell>
-          <cell r="W3">
-            <v>35.370000000000005</v>
-          </cell>
-          <cell r="X3">
-            <v>30.75</v>
-          </cell>
-          <cell r="Y3">
-            <v>30.75</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.75</v>
-          </cell>
-          <cell r="C4">
-            <v>31.75</v>
-          </cell>
-          <cell r="D4">
-            <v>29.5</v>
-          </cell>
-          <cell r="E4">
-            <v>31.75</v>
-          </cell>
-          <cell r="F4">
-            <v>31.75</v>
-          </cell>
-          <cell r="G4">
-            <v>31.75</v>
-          </cell>
-          <cell r="H4">
-            <v>44.9</v>
-          </cell>
-          <cell r="I4">
-            <v>31.75</v>
-          </cell>
-          <cell r="J4">
-            <v>39.99</v>
-          </cell>
-          <cell r="K4">
-            <v>40.01</v>
-          </cell>
-          <cell r="L4">
-            <v>40.01</v>
-          </cell>
-          <cell r="M4">
-            <v>40.01</v>
-          </cell>
-          <cell r="N4">
-            <v>39.99</v>
-          </cell>
-          <cell r="O4">
-            <v>39.99</v>
-          </cell>
-          <cell r="P4">
-            <v>39.99</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.99</v>
-          </cell>
-          <cell r="R4">
-            <v>40.020000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>44</v>
-          </cell>
-          <cell r="T4">
-            <v>44</v>
-          </cell>
-          <cell r="U4">
-            <v>44</v>
-          </cell>
-          <cell r="V4">
-            <v>44</v>
-          </cell>
-          <cell r="W4">
-            <v>40.99</v>
-          </cell>
-          <cell r="X4">
-            <v>31.75</v>
-          </cell>
-          <cell r="Y4">
-            <v>31.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="B2">
-            <v>37.270000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>34.01</v>
-          </cell>
-          <cell r="D2">
-            <v>32.57</v>
-          </cell>
-          <cell r="E2">
-            <v>31.98</v>
-          </cell>
-          <cell r="F2">
-            <v>32.130000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>36.369999999999997</v>
-          </cell>
-          <cell r="H2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="I2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="J2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="K2">
-            <v>39.94</v>
-          </cell>
-          <cell r="L2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="M2">
-            <v>40.01</v>
-          </cell>
-          <cell r="N2">
-            <v>39.44</v>
-          </cell>
-          <cell r="O2">
-            <v>39.19</v>
-          </cell>
-          <cell r="P2">
-            <v>38.369999999999997</v>
-          </cell>
-          <cell r="Q2">
-            <v>37.19</v>
-          </cell>
-          <cell r="R2">
-            <v>34.979999999999997</v>
-          </cell>
-          <cell r="S2">
-            <v>37.369999999999997</v>
-          </cell>
-          <cell r="T2">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>39.9</v>
-          </cell>
-          <cell r="V2">
-            <v>39.04</v>
-          </cell>
-          <cell r="W2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="X2">
-            <v>39.76</v>
-          </cell>
-          <cell r="Y2">
-            <v>38.14</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>39.68</v>
-          </cell>
-          <cell r="C3">
-            <v>35</v>
-          </cell>
-          <cell r="D3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="E3">
-            <v>36.9</v>
-          </cell>
-          <cell r="F3">
-            <v>37.61</v>
-          </cell>
-          <cell r="G3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="H3">
-            <v>37.21</v>
-          </cell>
-          <cell r="I3">
-            <v>40.18</v>
-          </cell>
-          <cell r="J3">
-            <v>42.84</v>
-          </cell>
-          <cell r="K3">
-            <v>43.03</v>
-          </cell>
-          <cell r="L3">
-            <v>43.45</v>
-          </cell>
-          <cell r="M3">
-            <v>44.27</v>
-          </cell>
-          <cell r="N3">
-            <v>44.97</v>
-          </cell>
-          <cell r="O3">
-            <v>46.14</v>
-          </cell>
-          <cell r="P3">
-            <v>44.39</v>
-          </cell>
-          <cell r="Q3">
-            <v>43.01</v>
-          </cell>
-          <cell r="R3">
-            <v>42.86</v>
-          </cell>
-          <cell r="S3">
-            <v>43.73</v>
-          </cell>
-          <cell r="T3">
-            <v>43.97</v>
-          </cell>
-          <cell r="U3">
-            <v>44.9</v>
-          </cell>
-          <cell r="V3">
-            <v>45.45</v>
-          </cell>
-          <cell r="W3">
-            <v>46.15</v>
-          </cell>
-          <cell r="X3">
-            <v>44.97</v>
-          </cell>
-          <cell r="Y3">
-            <v>42.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>33.39</v>
-          </cell>
-          <cell r="C4">
-            <v>30.82</v>
-          </cell>
-          <cell r="D4">
-            <v>28.89</v>
-          </cell>
-          <cell r="E4">
-            <v>28.43</v>
-          </cell>
-          <cell r="F4">
-            <v>29.41</v>
-          </cell>
-          <cell r="G4">
-            <v>34.39</v>
-          </cell>
-          <cell r="H4">
-            <v>45.24</v>
-          </cell>
-          <cell r="I4">
-            <v>42.92</v>
-          </cell>
-          <cell r="J4">
-            <v>44.88</v>
-          </cell>
-          <cell r="K4">
-            <v>44.3</v>
-          </cell>
-          <cell r="L4">
-            <v>41.06</v>
-          </cell>
-          <cell r="M4">
-            <v>39.9</v>
-          </cell>
-          <cell r="N4">
-            <v>44.18</v>
-          </cell>
-          <cell r="O4">
-            <v>45.18</v>
-          </cell>
-          <cell r="P4">
-            <v>44.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>44.35</v>
-          </cell>
-          <cell r="R4">
-            <v>44.35</v>
-          </cell>
-          <cell r="S4">
-            <v>44.88</v>
-          </cell>
-          <cell r="T4">
-            <v>46.18</v>
-          </cell>
-          <cell r="U4">
-            <v>47.88</v>
-          </cell>
-          <cell r="V4">
-            <v>51.18</v>
-          </cell>
-          <cell r="W4">
-            <v>55.69</v>
-          </cell>
-          <cell r="X4">
-            <v>50.77</v>
-          </cell>
-          <cell r="Y4">
-            <v>45</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D2">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E2">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F2">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G2">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H2">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I2">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J2">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K2">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L2">
-            <v>49.74</v>
-          </cell>
-          <cell r="M2">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N2">
-            <v>51.436</v>
-          </cell>
-          <cell r="O2">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P2">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q2">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R2">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S2">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T2">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U2">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X2">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y2">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C3">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D3">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E3">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F3">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G3">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H3">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I3">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J3">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K3">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L3">
-            <v>49.74</v>
-          </cell>
-          <cell r="M3">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N3">
-            <v>51.436</v>
-          </cell>
-          <cell r="O3">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P3">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q3">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R3">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S3">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T3">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U3">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V3">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y3">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C4">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D4">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E4">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F4">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G4">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H4">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I4">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J4">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K4">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L4">
-            <v>49.74</v>
-          </cell>
-          <cell r="M4">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N4">
-            <v>51.436</v>
-          </cell>
-          <cell r="O4">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P4">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R4">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S4">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T4">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U4">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V4">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X4">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y4">
-            <v>50.256</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="B2">
-            <v>10.26</v>
-          </cell>
-          <cell r="C2">
-            <v>10.909500000000001</v>
-          </cell>
-          <cell r="D2">
-            <v>10.084849999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>8.7750000000000004</v>
-          </cell>
-          <cell r="F2">
-            <v>7.9588000000000001</v>
-          </cell>
-          <cell r="G2">
-            <v>6.3310499999999994</v>
-          </cell>
-          <cell r="H2">
-            <v>5.706900000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>4.8929999999999998</v>
-          </cell>
-          <cell r="J2">
-            <v>4.0228999999999999</v>
-          </cell>
-          <cell r="K2">
-            <v>4.4879999999999995</v>
-          </cell>
-          <cell r="L2">
-            <v>4.2223500000000005</v>
-          </cell>
-          <cell r="M2">
-            <v>4.0441500000000001</v>
-          </cell>
-          <cell r="N2">
-            <v>3.6749999999999998</v>
-          </cell>
-          <cell r="O2">
-            <v>4.1912000000000003</v>
-          </cell>
-          <cell r="P2">
-            <v>4.4894500000000006</v>
-          </cell>
-          <cell r="Q2">
-            <v>3.9945499999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>2.9760000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>2.5608</v>
-          </cell>
-          <cell r="T2">
-            <v>3.0141000000000004</v>
-          </cell>
-          <cell r="U2">
-            <v>2.2196999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>3.6414</v>
-          </cell>
-          <cell r="W2">
-            <v>6.7825499999999996</v>
-          </cell>
-          <cell r="X2">
-            <v>7.5711999999999993</v>
-          </cell>
-          <cell r="Y2">
-            <v>6.9015499999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>8</v>
-          </cell>
-          <cell r="C3">
-            <v>7.99</v>
-          </cell>
-          <cell r="D3">
-            <v>7.76</v>
-          </cell>
-          <cell r="E3">
-            <v>8</v>
-          </cell>
-          <cell r="F3">
-            <v>11</v>
-          </cell>
-          <cell r="G3">
-            <v>8.5299999999999994</v>
-          </cell>
-          <cell r="H3">
-            <v>6.44</v>
-          </cell>
-          <cell r="I3">
-            <v>4.71</v>
-          </cell>
-          <cell r="J3">
-            <v>4.67</v>
-          </cell>
-          <cell r="K3">
-            <v>5.66</v>
-          </cell>
-          <cell r="L3">
-            <v>4.79</v>
-          </cell>
-          <cell r="M3">
-            <v>5.08</v>
-          </cell>
-          <cell r="N3">
-            <v>4.07</v>
-          </cell>
-          <cell r="O3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="P3">
-            <v>5.27</v>
-          </cell>
-          <cell r="Q3">
-            <v>4.63</v>
-          </cell>
-          <cell r="R3">
-            <v>4.41</v>
-          </cell>
-          <cell r="S3">
-            <v>3.49</v>
-          </cell>
-          <cell r="T3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="V3">
-            <v>4.97</v>
-          </cell>
-          <cell r="W3">
-            <v>8.57</v>
-          </cell>
-          <cell r="X3">
-            <v>8.25</v>
-          </cell>
-          <cell r="Y3">
-            <v>6.83</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>12.52</v>
-          </cell>
-          <cell r="C4">
-            <v>12.79</v>
-          </cell>
-          <cell r="D4">
-            <v>12.21</v>
-          </cell>
-          <cell r="E4">
-            <v>9.5500000000000007</v>
-          </cell>
-          <cell r="F4">
-            <v>4.76</v>
-          </cell>
-          <cell r="G4">
-            <v>4.26</v>
-          </cell>
-          <cell r="H4">
-            <v>4.75</v>
-          </cell>
-          <cell r="I4">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="J4">
-            <v>3.54</v>
-          </cell>
-          <cell r="K4">
-            <v>3.69</v>
-          </cell>
-          <cell r="L4">
-            <v>3.74</v>
-          </cell>
-          <cell r="M4">
-            <v>3.09</v>
-          </cell>
-          <cell r="N4">
-            <v>3.43</v>
-          </cell>
-          <cell r="O4">
-            <v>3.62</v>
-          </cell>
-          <cell r="P4">
-            <v>3.62</v>
-          </cell>
-          <cell r="Q4">
-            <v>3.28</v>
-          </cell>
-          <cell r="R4">
-            <v>1.79</v>
-          </cell>
-          <cell r="S4">
-            <v>1.79</v>
-          </cell>
-          <cell r="T4">
-            <v>1.47</v>
-          </cell>
-          <cell r="U4">
-            <v>2.23</v>
-          </cell>
-          <cell r="V4">
-            <v>2.17</v>
-          </cell>
-          <cell r="W4">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="X4">
-            <v>6.31</v>
-          </cell>
-          <cell r="Y4">
-            <v>7.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
-            <v>42.153333333333336</v>
-          </cell>
-          <cell r="C2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="D2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="E2">
-            <v>51.303333333333335</v>
-          </cell>
-          <cell r="F2">
-            <v>44.726666666666667</v>
-          </cell>
-          <cell r="G2">
-            <v>53.636666666666677</v>
-          </cell>
-          <cell r="H2">
-            <v>52.483333333333327</v>
-          </cell>
-          <cell r="I2">
-            <v>40.266666666666673</v>
-          </cell>
-          <cell r="J2">
-            <v>40.466666666666669</v>
-          </cell>
-          <cell r="K2">
-            <v>59.133333333333333</v>
-          </cell>
-          <cell r="L2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="M2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="N2">
-            <v>59.5</v>
-          </cell>
-          <cell r="O2">
-            <v>59.5</v>
-          </cell>
-          <cell r="P2">
-            <v>44.09</v>
-          </cell>
-          <cell r="Q2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="R2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>41.06666666666667</v>
-          </cell>
-          <cell r="T2">
-            <v>40.866666666666667</v>
-          </cell>
-          <cell r="U2">
-            <v>44.09</v>
-          </cell>
-          <cell r="V2">
-            <v>40.6</v>
-          </cell>
-          <cell r="W2">
-            <v>45.860000000000007</v>
-          </cell>
-          <cell r="X2">
-            <v>37.6</v>
-          </cell>
-          <cell r="Y2">
-            <v>37.6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>36.216666666666669</v>
-          </cell>
-          <cell r="C3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="D3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="E3">
-            <v>45.351666666666667</v>
-          </cell>
-          <cell r="F3">
-            <v>40.36333333333333</v>
-          </cell>
-          <cell r="G3">
-            <v>61.338333333333338</v>
-          </cell>
-          <cell r="H3">
-            <v>60.76166666666667</v>
-          </cell>
-          <cell r="I3">
-            <v>39.833333333333336</v>
-          </cell>
-          <cell r="J3">
-            <v>40.233333333333334</v>
-          </cell>
-          <cell r="K3">
-            <v>49.266666666666666</v>
-          </cell>
-          <cell r="L3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="M3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="N3">
-            <v>49.45</v>
-          </cell>
-          <cell r="O3">
-            <v>49.45</v>
-          </cell>
-          <cell r="P3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.1</v>
-          </cell>
-          <cell r="R3">
-            <v>40.400000000000006</v>
-          </cell>
-          <cell r="S3">
-            <v>40.63333333333334</v>
-          </cell>
-          <cell r="T3">
-            <v>40.533333333333331</v>
-          </cell>
-          <cell r="U3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>40</v>
-          </cell>
-          <cell r="W3">
-            <v>42.63</v>
-          </cell>
-          <cell r="X3">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="Y3">
-            <v>38.799999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>30.28</v>
-          </cell>
-          <cell r="C4">
-            <v>31.28</v>
-          </cell>
-          <cell r="D4">
-            <v>31.28</v>
-          </cell>
-          <cell r="E4">
-            <v>39.4</v>
-          </cell>
-          <cell r="F4">
-            <v>36</v>
-          </cell>
-          <cell r="G4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="H4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="I4">
-            <v>39.4</v>
-          </cell>
-          <cell r="J4">
-            <v>40</v>
-          </cell>
-          <cell r="K4">
-            <v>39.4</v>
-          </cell>
-          <cell r="L4">
-            <v>39.4</v>
-          </cell>
-          <cell r="M4">
-            <v>39.4</v>
-          </cell>
-          <cell r="N4">
-            <v>39.4</v>
-          </cell>
-          <cell r="O4">
-            <v>39.4</v>
-          </cell>
-          <cell r="P4">
-            <v>39.4</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.4</v>
-          </cell>
-          <cell r="R4">
-            <v>40</v>
-          </cell>
-          <cell r="S4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="T4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="U4">
-            <v>39.4</v>
-          </cell>
-          <cell r="V4">
-            <v>39.4</v>
-          </cell>
-          <cell r="W4">
-            <v>39.4</v>
-          </cell>
-          <cell r="X4">
-            <v>40</v>
-          </cell>
-          <cell r="Y4">
-            <v>40</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>24.09</v>
-          </cell>
-          <cell r="C2">
-            <v>24.09</v>
-          </cell>
-          <cell r="D2">
-            <v>24.09</v>
-          </cell>
-          <cell r="E2">
-            <v>24.09</v>
-          </cell>
-          <cell r="F2">
-            <v>29.04</v>
-          </cell>
-          <cell r="G2">
-            <v>29.03</v>
-          </cell>
-          <cell r="H2">
-            <v>29.05</v>
-          </cell>
-          <cell r="I2">
-            <v>29.04</v>
-          </cell>
-          <cell r="J2">
-            <v>29.04</v>
-          </cell>
-          <cell r="K2">
-            <v>29.05</v>
-          </cell>
-          <cell r="L2">
-            <v>32</v>
-          </cell>
-          <cell r="M2">
-            <v>29.03</v>
-          </cell>
-          <cell r="N2">
-            <v>29.03</v>
-          </cell>
-          <cell r="O2">
-            <v>29.03</v>
-          </cell>
-          <cell r="P2">
-            <v>32</v>
-          </cell>
-          <cell r="Q2">
-            <v>29.01</v>
-          </cell>
-          <cell r="R2">
-            <v>32</v>
-          </cell>
-          <cell r="S2">
-            <v>29.01</v>
-          </cell>
-          <cell r="T2">
-            <v>29.01</v>
-          </cell>
-          <cell r="U2">
-            <v>29.01</v>
-          </cell>
-          <cell r="V2">
-            <v>29.01</v>
-          </cell>
-          <cell r="W2">
-            <v>29.01</v>
-          </cell>
-          <cell r="X2">
-            <v>29.01</v>
-          </cell>
-          <cell r="Y2">
-            <v>27.98</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="C3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="D3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>31.63</v>
-          </cell>
-          <cell r="G3">
-            <v>23.537500000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>29.28</v>
-          </cell>
-          <cell r="I3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="J3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="K3">
-            <v>30.950000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="M3">
-            <v>30.935000000000002</v>
-          </cell>
-          <cell r="N3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="O3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="P3">
-            <v>31.4925</v>
-          </cell>
-          <cell r="Q3">
-            <v>30.92</v>
-          </cell>
-          <cell r="R3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="S3">
-            <v>30.92</v>
-          </cell>
-          <cell r="T3">
-            <v>30.92</v>
-          </cell>
-          <cell r="U3">
-            <v>30.92</v>
-          </cell>
-          <cell r="V3">
-            <v>30.92</v>
-          </cell>
-          <cell r="W3">
-            <v>29.25</v>
-          </cell>
-          <cell r="X3">
-            <v>28.305</v>
-          </cell>
-          <cell r="Y3">
-            <v>27.532499999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="F4">
-            <v>34.22</v>
-          </cell>
-          <cell r="G4">
-            <v>18.045000000000002</v>
-          </cell>
-          <cell r="H4">
-            <v>29.509999999999998</v>
-          </cell>
-          <cell r="I4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="J4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="K4">
-            <v>32.85</v>
-          </cell>
-          <cell r="L4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="M4">
-            <v>32.840000000000003</v>
-          </cell>
-          <cell r="N4">
-            <v>29.5</v>
-          </cell>
-          <cell r="O4">
-            <v>29.5</v>
-          </cell>
-          <cell r="P4">
-            <v>30.984999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>32.83</v>
-          </cell>
-          <cell r="R4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>32.83</v>
-          </cell>
-          <cell r="T4">
-            <v>32.83</v>
-          </cell>
-          <cell r="U4">
-            <v>32.83</v>
-          </cell>
-          <cell r="V4">
-            <v>32.83</v>
-          </cell>
-          <cell r="W4">
-            <v>29.490000000000002</v>
-          </cell>
-          <cell r="X4">
-            <v>27.6</v>
-          </cell>
-          <cell r="Y4">
-            <v>27.085000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2435,48 +230,2247 @@
       <sheetName val="Tertiary Reserve Down, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>2020</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>43.71</v>
+          </cell>
+          <cell r="C2">
+            <v>40.784999999999997</v>
+          </cell>
+          <cell r="D2">
+            <v>39.052499999999995</v>
+          </cell>
+          <cell r="E2">
+            <v>36.622500000000002</v>
+          </cell>
+          <cell r="F2">
+            <v>37.715000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>40.745000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>49.295000000000002</v>
+          </cell>
+          <cell r="I2">
+            <v>51.59</v>
+          </cell>
+          <cell r="J2">
+            <v>54.25</v>
+          </cell>
+          <cell r="K2">
+            <v>53.837499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>52.800000000000004</v>
+          </cell>
+          <cell r="M2">
+            <v>52.542499999999997</v>
+          </cell>
+          <cell r="N2">
+            <v>50.507499999999993</v>
+          </cell>
+          <cell r="O2">
+            <v>49.795000000000002</v>
+          </cell>
+          <cell r="P2">
+            <v>48.817500000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>48.914999999999999</v>
+          </cell>
+          <cell r="R2">
+            <v>49.67</v>
+          </cell>
+          <cell r="S2">
+            <v>52.125</v>
+          </cell>
+          <cell r="T2">
+            <v>54.620000000000005</v>
+          </cell>
+          <cell r="U2">
+            <v>55.040000000000006</v>
+          </cell>
+          <cell r="V2">
+            <v>53.769999999999996</v>
+          </cell>
+          <cell r="W2">
+            <v>50.392499999999998</v>
+          </cell>
+          <cell r="X2">
+            <v>45.482500000000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>42.69</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>40.82</v>
+          </cell>
+          <cell r="C3">
+            <v>38.53</v>
+          </cell>
+          <cell r="D3">
+            <v>36.034999999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>34.424999999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>36.340000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>38.28</v>
+          </cell>
+          <cell r="H3">
+            <v>44.2</v>
+          </cell>
+          <cell r="I3">
+            <v>46.17</v>
+          </cell>
+          <cell r="J3">
+            <v>48.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>48.805</v>
+          </cell>
+          <cell r="L3">
+            <v>47.400000000000006</v>
+          </cell>
+          <cell r="M3">
+            <v>46.424999999999997</v>
+          </cell>
+          <cell r="N3">
+            <v>45.004999999999995</v>
+          </cell>
+          <cell r="O3">
+            <v>44.53</v>
+          </cell>
+          <cell r="P3">
+            <v>42.545000000000002</v>
+          </cell>
+          <cell r="Q3">
+            <v>42.21</v>
+          </cell>
+          <cell r="R3">
+            <v>43.08</v>
+          </cell>
+          <cell r="S3">
+            <v>47.5</v>
+          </cell>
+          <cell r="T3">
+            <v>49.730000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>50.510000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>50.79</v>
+          </cell>
+          <cell r="W3">
+            <v>48.534999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>43.954999999999998</v>
+          </cell>
+          <cell r="Y3">
+            <v>41.71</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
+            <v>46.6</v>
+          </cell>
+          <cell r="C4">
+            <v>43.04</v>
+          </cell>
+          <cell r="D4">
+            <v>42.07</v>
+          </cell>
+          <cell r="E4">
+            <v>38.82</v>
+          </cell>
+          <cell r="F4">
+            <v>39.090000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>43.21</v>
+          </cell>
+          <cell r="H4">
+            <v>54.39</v>
+          </cell>
+          <cell r="I4">
+            <v>57.01</v>
+          </cell>
+          <cell r="J4">
+            <v>60.02</v>
+          </cell>
+          <cell r="K4">
+            <v>58.87</v>
+          </cell>
+          <cell r="L4">
+            <v>58.2</v>
+          </cell>
+          <cell r="M4">
+            <v>58.66</v>
+          </cell>
+          <cell r="N4">
+            <v>56.01</v>
+          </cell>
+          <cell r="O4">
+            <v>55.06</v>
+          </cell>
+          <cell r="P4">
+            <v>55.09</v>
+          </cell>
+          <cell r="Q4">
+            <v>55.62</v>
+          </cell>
+          <cell r="R4">
+            <v>56.26</v>
+          </cell>
+          <cell r="S4">
+            <v>56.75</v>
+          </cell>
+          <cell r="T4">
+            <v>59.51</v>
+          </cell>
+          <cell r="U4">
+            <v>59.57</v>
+          </cell>
+          <cell r="V4">
+            <v>56.75</v>
+          </cell>
+          <cell r="W4">
+            <v>52.25</v>
+          </cell>
+          <cell r="X4">
+            <v>47.01</v>
+          </cell>
+          <cell r="Y4">
+            <v>43.67</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C2">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D2">
+            <v>46.863</v>
+          </cell>
+          <cell r="E2">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F2">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I2">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J2">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K2">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M2">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N2">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O2">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P2">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R2">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S2">
+            <v>62.55</v>
+          </cell>
+          <cell r="T2">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V2">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X2">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y2">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C3">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D3">
+            <v>46.863</v>
+          </cell>
+          <cell r="E3">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F3">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H3">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I3">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J3">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K3">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L3">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M3">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O3">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P3">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q3">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R3">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S3">
+            <v>62.55</v>
+          </cell>
+          <cell r="T3">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U3">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V3">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X3">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y3">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C4">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D4">
+            <v>46.863</v>
+          </cell>
+          <cell r="E4">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F4">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H4">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I4">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J4">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K4">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L4">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M4">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N4">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O4">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P4">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q4">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R4">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S4">
+            <v>62.55</v>
+          </cell>
+          <cell r="T4">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U4">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V4">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X4">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y4">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>25.342275000000001</v>
+          </cell>
+          <cell r="C2">
+            <v>24.594854999999999</v>
+          </cell>
+          <cell r="D2">
+            <v>27.759217499999998</v>
+          </cell>
+          <cell r="E2">
+            <v>30.54975</v>
+          </cell>
+          <cell r="F2">
+            <v>32.125005000000002</v>
+          </cell>
+          <cell r="G2">
+            <v>29.361535</v>
+          </cell>
+          <cell r="H2">
+            <v>27.199200000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>29.454137500000002</v>
+          </cell>
+          <cell r="J2">
+            <v>25.75685</v>
+          </cell>
+          <cell r="K2">
+            <v>23.352209999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>22.9788</v>
+          </cell>
+          <cell r="M2">
+            <v>20.269462499999999</v>
+          </cell>
+          <cell r="N2">
+            <v>22.549799999999994</v>
+          </cell>
+          <cell r="O2">
+            <v>18.743400000000001</v>
+          </cell>
+          <cell r="P2">
+            <v>19.593999999999998</v>
+          </cell>
+          <cell r="Q2">
+            <v>16.172449999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>12.758287500000002</v>
+          </cell>
+          <cell r="S2">
+            <v>14.871139999999999</v>
+          </cell>
+          <cell r="T2">
+            <v>10.08586</v>
+          </cell>
+          <cell r="U2">
+            <v>8.7737250000000007</v>
+          </cell>
+          <cell r="V2">
+            <v>9.8389550000000003</v>
+          </cell>
+          <cell r="W2">
+            <v>13.74175</v>
+          </cell>
+          <cell r="X2">
+            <v>16.117327500000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>14.23521</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>20.34</v>
+          </cell>
+          <cell r="C3">
+            <v>21.39</v>
+          </cell>
+          <cell r="D3">
+            <v>29.287499999999998</v>
+          </cell>
+          <cell r="E3">
+            <v>33.202500000000001</v>
+          </cell>
+          <cell r="F3">
+            <v>36.134999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>35.917500000000004</v>
+          </cell>
+          <cell r="H3">
+            <v>35.67</v>
+          </cell>
+          <cell r="I3">
+            <v>37.387500000000003</v>
+          </cell>
+          <cell r="J3">
+            <v>34.799999999999997</v>
+          </cell>
+          <cell r="K3">
+            <v>30.075000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>30.93</v>
+          </cell>
+          <cell r="M3">
+            <v>25.297499999999999</v>
+          </cell>
+          <cell r="N3">
+            <v>28.83</v>
+          </cell>
+          <cell r="O3">
+            <v>21.509999999999998</v>
+          </cell>
+          <cell r="P3">
+            <v>22.65</v>
+          </cell>
+          <cell r="Q3">
+            <v>20.34</v>
+          </cell>
+          <cell r="R3">
+            <v>13.642500000000002</v>
+          </cell>
+          <cell r="S3">
+            <v>17.009999999999998</v>
+          </cell>
+          <cell r="T3">
+            <v>11.115</v>
+          </cell>
+          <cell r="U3">
+            <v>9.75</v>
+          </cell>
+          <cell r="V3">
+            <v>10.8825</v>
+          </cell>
+          <cell r="W3">
+            <v>12.78</v>
+          </cell>
+          <cell r="X3">
+            <v>13.657500000000001</v>
+          </cell>
+          <cell r="Y3">
+            <v>10.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>27.930999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>26.366999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>27.948</v>
+          </cell>
+          <cell r="E4">
+            <v>27.896999999999998</v>
+          </cell>
+          <cell r="F4">
+            <v>28.764000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>24.003999999999998</v>
+          </cell>
+          <cell r="H4">
+            <v>20.994999999999997</v>
+          </cell>
+          <cell r="I4">
+            <v>19.805</v>
+          </cell>
+          <cell r="J4">
+            <v>17.764999999999997</v>
+          </cell>
+          <cell r="K4">
+            <v>16.166999999999998</v>
+          </cell>
+          <cell r="L4">
+            <v>13.26</v>
+          </cell>
+          <cell r="M4">
+            <v>13.311</v>
+          </cell>
+          <cell r="N4">
+            <v>14.535</v>
+          </cell>
+          <cell r="O4">
+            <v>14.535</v>
+          </cell>
+          <cell r="P4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>12.664999999999999</v>
+          </cell>
+          <cell r="R4">
+            <v>10.658999999999999</v>
+          </cell>
+          <cell r="S4">
+            <v>11.866</v>
+          </cell>
+          <cell r="T4">
+            <v>8.8569999999999993</v>
+          </cell>
+          <cell r="U4">
+            <v>8.7210000000000001</v>
+          </cell>
+          <cell r="V4">
+            <v>9.1969999999999992</v>
+          </cell>
+          <cell r="W4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="X4">
+            <v>18.257999999999999</v>
+          </cell>
+          <cell r="Y4">
+            <v>18.257999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>50.01</v>
+          </cell>
+          <cell r="C2">
+            <v>45</v>
+          </cell>
+          <cell r="D2">
+            <v>49</v>
+          </cell>
+          <cell r="E2">
+            <v>37.31</v>
+          </cell>
+          <cell r="F2">
+            <v>37.31</v>
+          </cell>
+          <cell r="G2">
+            <v>48</v>
+          </cell>
+          <cell r="H2">
+            <v>50.01</v>
+          </cell>
+          <cell r="I2">
+            <v>50.01</v>
+          </cell>
+          <cell r="J2">
+            <v>48</v>
+          </cell>
+          <cell r="K2">
+            <v>46.88</v>
+          </cell>
+          <cell r="L2">
+            <v>47.88</v>
+          </cell>
+          <cell r="M2">
+            <v>47.88</v>
+          </cell>
+          <cell r="N2">
+            <v>47.88</v>
+          </cell>
+          <cell r="O2">
+            <v>47.88</v>
+          </cell>
+          <cell r="P2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Q2">
+            <v>47.88</v>
+          </cell>
+          <cell r="R2">
+            <v>47.88</v>
+          </cell>
+          <cell r="S2">
+            <v>47.88</v>
+          </cell>
+          <cell r="T2">
+            <v>47.88</v>
+          </cell>
+          <cell r="U2">
+            <v>47.88</v>
+          </cell>
+          <cell r="V2">
+            <v>47.88</v>
+          </cell>
+          <cell r="W2">
+            <v>47.88</v>
+          </cell>
+          <cell r="X2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Y2">
+            <v>47.88</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>47.67</v>
+          </cell>
+          <cell r="C3">
+            <v>32.44</v>
+          </cell>
+          <cell r="D3">
+            <v>32.44</v>
+          </cell>
+          <cell r="E3">
+            <v>32.44</v>
+          </cell>
+          <cell r="F3">
+            <v>32.44</v>
+          </cell>
+          <cell r="G3">
+            <v>32.44</v>
+          </cell>
+          <cell r="H3">
+            <v>32.44</v>
+          </cell>
+          <cell r="I3">
+            <v>32.44</v>
+          </cell>
+          <cell r="J3">
+            <v>47.67</v>
+          </cell>
+          <cell r="K3">
+            <v>36.44</v>
+          </cell>
+          <cell r="L3">
+            <v>37.44</v>
+          </cell>
+          <cell r="M3">
+            <v>37.44</v>
+          </cell>
+          <cell r="N3">
+            <v>37.44</v>
+          </cell>
+          <cell r="O3">
+            <v>37.44</v>
+          </cell>
+          <cell r="P3">
+            <v>37.44</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.69</v>
+          </cell>
+          <cell r="R3">
+            <v>47.67</v>
+          </cell>
+          <cell r="S3">
+            <v>44.4</v>
+          </cell>
+          <cell r="T3">
+            <v>44.4</v>
+          </cell>
+          <cell r="U3">
+            <v>44.4</v>
+          </cell>
+          <cell r="V3">
+            <v>44.4</v>
+          </cell>
+          <cell r="W3">
+            <v>47.67</v>
+          </cell>
+          <cell r="X3">
+            <v>47.67</v>
+          </cell>
+          <cell r="Y3">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>55</v>
+          </cell>
+          <cell r="C4">
+            <v>56.99</v>
+          </cell>
+          <cell r="D4">
+            <v>56.99</v>
+          </cell>
+          <cell r="E4">
+            <v>55</v>
+          </cell>
+          <cell r="F4">
+            <v>55</v>
+          </cell>
+          <cell r="G4">
+            <v>55</v>
+          </cell>
+          <cell r="H4">
+            <v>56.99</v>
+          </cell>
+          <cell r="I4">
+            <v>56.99</v>
+          </cell>
+          <cell r="J4">
+            <v>55</v>
+          </cell>
+          <cell r="K4">
+            <v>55</v>
+          </cell>
+          <cell r="L4">
+            <v>55</v>
+          </cell>
+          <cell r="M4">
+            <v>55</v>
+          </cell>
+          <cell r="N4">
+            <v>59.95</v>
+          </cell>
+          <cell r="O4">
+            <v>59.95</v>
+          </cell>
+          <cell r="P4">
+            <v>59.95</v>
+          </cell>
+          <cell r="Q4">
+            <v>59.95</v>
+          </cell>
+          <cell r="R4">
+            <v>59.95</v>
+          </cell>
+          <cell r="S4">
+            <v>55</v>
+          </cell>
+          <cell r="T4">
+            <v>55</v>
+          </cell>
+          <cell r="U4">
+            <v>55</v>
+          </cell>
+          <cell r="V4">
+            <v>55</v>
+          </cell>
+          <cell r="W4">
+            <v>55</v>
+          </cell>
+          <cell r="X4">
+            <v>55</v>
+          </cell>
+          <cell r="Y4">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>24.97</v>
+          </cell>
+          <cell r="C2">
+            <v>24.97</v>
+          </cell>
+          <cell r="D2">
+            <v>24.97</v>
+          </cell>
+          <cell r="E2">
+            <v>25.97</v>
+          </cell>
+          <cell r="F2">
+            <v>25.97</v>
+          </cell>
+          <cell r="G2">
+            <v>24.97</v>
+          </cell>
+          <cell r="H2">
+            <v>29.75</v>
+          </cell>
+          <cell r="I2">
+            <v>29.75</v>
+          </cell>
+          <cell r="J2">
+            <v>24.97</v>
+          </cell>
+          <cell r="K2">
+            <v>29.75</v>
+          </cell>
+          <cell r="L2">
+            <v>24.97</v>
+          </cell>
+          <cell r="M2">
+            <v>24.97</v>
+          </cell>
+          <cell r="N2">
+            <v>24.97</v>
+          </cell>
+          <cell r="O2">
+            <v>25.01</v>
+          </cell>
+          <cell r="P2">
+            <v>24.97</v>
+          </cell>
+          <cell r="Q2">
+            <v>24.97</v>
+          </cell>
+          <cell r="R2">
+            <v>29.75</v>
+          </cell>
+          <cell r="S2">
+            <v>29.75</v>
+          </cell>
+          <cell r="T2">
+            <v>29.75</v>
+          </cell>
+          <cell r="U2">
+            <v>29.75</v>
+          </cell>
+          <cell r="V2">
+            <v>29.75</v>
+          </cell>
+          <cell r="W2">
+            <v>29.75</v>
+          </cell>
+          <cell r="X2">
+            <v>29.75</v>
+          </cell>
+          <cell r="Y2">
+            <v>29.75</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>28.36</v>
+          </cell>
+          <cell r="C3">
+            <v>28.36</v>
+          </cell>
+          <cell r="D3">
+            <v>27.234999999999999</v>
+          </cell>
+          <cell r="E3">
+            <v>28.86</v>
+          </cell>
+          <cell r="F3">
+            <v>28.86</v>
+          </cell>
+          <cell r="G3">
+            <v>28.36</v>
+          </cell>
+          <cell r="H3">
+            <v>37.325000000000003</v>
+          </cell>
+          <cell r="I3">
+            <v>30.75</v>
+          </cell>
+          <cell r="J3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>34.879999999999995</v>
+          </cell>
+          <cell r="L3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="M3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="O3">
+            <v>32.5</v>
+          </cell>
+          <cell r="P3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="Q3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="R3">
+            <v>34.885000000000005</v>
+          </cell>
+          <cell r="S3">
+            <v>36.875</v>
+          </cell>
+          <cell r="T3">
+            <v>36.875</v>
+          </cell>
+          <cell r="U3">
+            <v>36.875</v>
+          </cell>
+          <cell r="V3">
+            <v>36.875</v>
+          </cell>
+          <cell r="W3">
+            <v>35.370000000000005</v>
+          </cell>
+          <cell r="X3">
+            <v>30.75</v>
+          </cell>
+          <cell r="Y3">
+            <v>30.75</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.75</v>
+          </cell>
+          <cell r="C4">
+            <v>31.75</v>
+          </cell>
+          <cell r="D4">
+            <v>29.5</v>
+          </cell>
+          <cell r="E4">
+            <v>31.75</v>
+          </cell>
+          <cell r="F4">
+            <v>31.75</v>
+          </cell>
+          <cell r="G4">
+            <v>31.75</v>
+          </cell>
+          <cell r="H4">
+            <v>44.9</v>
+          </cell>
+          <cell r="I4">
+            <v>31.75</v>
+          </cell>
+          <cell r="J4">
+            <v>39.99</v>
+          </cell>
+          <cell r="K4">
+            <v>40.01</v>
+          </cell>
+          <cell r="L4">
+            <v>40.01</v>
+          </cell>
+          <cell r="M4">
+            <v>40.01</v>
+          </cell>
+          <cell r="N4">
+            <v>39.99</v>
+          </cell>
+          <cell r="O4">
+            <v>39.99</v>
+          </cell>
+          <cell r="P4">
+            <v>39.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.99</v>
+          </cell>
+          <cell r="R4">
+            <v>40.020000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>44</v>
+          </cell>
+          <cell r="T4">
+            <v>44</v>
+          </cell>
+          <cell r="U4">
+            <v>44</v>
+          </cell>
+          <cell r="V4">
+            <v>44</v>
+          </cell>
+          <cell r="W4">
+            <v>40.99</v>
+          </cell>
+          <cell r="X4">
+            <v>31.75</v>
+          </cell>
+          <cell r="Y4">
+            <v>31.75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>37.270000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>34.01</v>
+          </cell>
+          <cell r="D2">
+            <v>32.57</v>
+          </cell>
+          <cell r="E2">
+            <v>31.98</v>
+          </cell>
+          <cell r="F2">
+            <v>32.130000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>36.369999999999997</v>
+          </cell>
+          <cell r="H2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="I2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="J2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="K2">
+            <v>39.94</v>
+          </cell>
+          <cell r="L2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="M2">
+            <v>40.01</v>
+          </cell>
+          <cell r="N2">
+            <v>39.44</v>
+          </cell>
+          <cell r="O2">
+            <v>39.19</v>
+          </cell>
+          <cell r="P2">
+            <v>38.369999999999997</v>
+          </cell>
+          <cell r="Q2">
+            <v>37.19</v>
+          </cell>
+          <cell r="R2">
+            <v>34.979999999999997</v>
+          </cell>
+          <cell r="S2">
+            <v>37.369999999999997</v>
+          </cell>
+          <cell r="T2">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>39.9</v>
+          </cell>
+          <cell r="V2">
+            <v>39.04</v>
+          </cell>
+          <cell r="W2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="X2">
+            <v>39.76</v>
+          </cell>
+          <cell r="Y2">
+            <v>38.14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>39.68</v>
+          </cell>
+          <cell r="C3">
+            <v>35</v>
+          </cell>
+          <cell r="D3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>36.9</v>
+          </cell>
+          <cell r="F3">
+            <v>37.61</v>
+          </cell>
+          <cell r="G3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="H3">
+            <v>37.21</v>
+          </cell>
+          <cell r="I3">
+            <v>40.18</v>
+          </cell>
+          <cell r="J3">
+            <v>42.84</v>
+          </cell>
+          <cell r="K3">
+            <v>43.03</v>
+          </cell>
+          <cell r="L3">
+            <v>43.45</v>
+          </cell>
+          <cell r="M3">
+            <v>44.27</v>
+          </cell>
+          <cell r="N3">
+            <v>44.97</v>
+          </cell>
+          <cell r="O3">
+            <v>46.14</v>
+          </cell>
+          <cell r="P3">
+            <v>44.39</v>
+          </cell>
+          <cell r="Q3">
+            <v>43.01</v>
+          </cell>
+          <cell r="R3">
+            <v>42.86</v>
+          </cell>
+          <cell r="S3">
+            <v>43.73</v>
+          </cell>
+          <cell r="T3">
+            <v>43.97</v>
+          </cell>
+          <cell r="U3">
+            <v>44.9</v>
+          </cell>
+          <cell r="V3">
+            <v>45.45</v>
+          </cell>
+          <cell r="W3">
+            <v>46.15</v>
+          </cell>
+          <cell r="X3">
+            <v>44.97</v>
+          </cell>
+          <cell r="Y3">
+            <v>42.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>33.39</v>
+          </cell>
+          <cell r="C4">
+            <v>30.82</v>
+          </cell>
+          <cell r="D4">
+            <v>28.89</v>
+          </cell>
+          <cell r="E4">
+            <v>28.43</v>
+          </cell>
+          <cell r="F4">
+            <v>29.41</v>
+          </cell>
+          <cell r="G4">
+            <v>34.39</v>
+          </cell>
+          <cell r="H4">
+            <v>45.24</v>
+          </cell>
+          <cell r="I4">
+            <v>42.92</v>
+          </cell>
+          <cell r="J4">
+            <v>44.88</v>
+          </cell>
+          <cell r="K4">
+            <v>44.3</v>
+          </cell>
+          <cell r="L4">
+            <v>41.06</v>
+          </cell>
+          <cell r="M4">
+            <v>39.9</v>
+          </cell>
+          <cell r="N4">
+            <v>44.18</v>
+          </cell>
+          <cell r="O4">
+            <v>45.18</v>
+          </cell>
+          <cell r="P4">
+            <v>44.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>44.35</v>
+          </cell>
+          <cell r="R4">
+            <v>44.35</v>
+          </cell>
+          <cell r="S4">
+            <v>44.88</v>
+          </cell>
+          <cell r="T4">
+            <v>46.18</v>
+          </cell>
+          <cell r="U4">
+            <v>47.88</v>
+          </cell>
+          <cell r="V4">
+            <v>51.18</v>
+          </cell>
+          <cell r="W4">
+            <v>55.69</v>
+          </cell>
+          <cell r="X4">
+            <v>50.77</v>
+          </cell>
+          <cell r="Y4">
+            <v>45</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D2">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E2">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F2">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G2">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H2">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I2">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J2">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K2">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L2">
+            <v>49.74</v>
+          </cell>
+          <cell r="M2">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N2">
+            <v>51.436</v>
+          </cell>
+          <cell r="O2">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P2">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q2">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R2">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S2">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T2">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U2">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X2">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y2">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C3">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D3">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E3">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F3">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G3">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H3">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I3">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J3">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K3">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L3">
+            <v>49.74</v>
+          </cell>
+          <cell r="M3">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N3">
+            <v>51.436</v>
+          </cell>
+          <cell r="O3">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P3">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q3">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R3">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S3">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T3">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U3">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V3">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y3">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C4">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D4">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E4">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G4">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H4">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J4">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K4">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L4">
+            <v>49.74</v>
+          </cell>
+          <cell r="M4">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>51.436</v>
+          </cell>
+          <cell r="O4">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P4">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R4">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S4">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T4">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U4">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V4">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X4">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y4">
+            <v>50.256</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>10.26</v>
+          </cell>
+          <cell r="C2">
+            <v>10.909500000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>10.084849999999999</v>
+          </cell>
+          <cell r="E2">
+            <v>8.7750000000000004</v>
+          </cell>
+          <cell r="F2">
+            <v>7.9588000000000001</v>
+          </cell>
+          <cell r="G2">
+            <v>6.3310499999999994</v>
+          </cell>
+          <cell r="H2">
+            <v>5.706900000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>4.8929999999999998</v>
+          </cell>
+          <cell r="J2">
+            <v>4.0228999999999999</v>
+          </cell>
+          <cell r="K2">
+            <v>4.4879999999999995</v>
+          </cell>
+          <cell r="L2">
+            <v>4.2223500000000005</v>
+          </cell>
+          <cell r="M2">
+            <v>4.0441500000000001</v>
+          </cell>
+          <cell r="N2">
+            <v>3.6749999999999998</v>
+          </cell>
+          <cell r="O2">
+            <v>4.1912000000000003</v>
+          </cell>
+          <cell r="P2">
+            <v>4.4894500000000006</v>
+          </cell>
+          <cell r="Q2">
+            <v>3.9945499999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>2.9760000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>2.5608</v>
+          </cell>
+          <cell r="T2">
+            <v>3.0141000000000004</v>
+          </cell>
+          <cell r="U2">
+            <v>2.2196999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>3.6414</v>
+          </cell>
+          <cell r="W2">
+            <v>6.7825499999999996</v>
+          </cell>
+          <cell r="X2">
+            <v>7.5711999999999993</v>
+          </cell>
+          <cell r="Y2">
+            <v>6.9015499999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>8</v>
+          </cell>
+          <cell r="C3">
+            <v>7.99</v>
+          </cell>
+          <cell r="D3">
+            <v>7.76</v>
+          </cell>
+          <cell r="E3">
+            <v>8</v>
+          </cell>
+          <cell r="F3">
+            <v>11</v>
+          </cell>
+          <cell r="G3">
+            <v>8.5299999999999994</v>
+          </cell>
+          <cell r="H3">
+            <v>6.44</v>
+          </cell>
+          <cell r="I3">
+            <v>4.71</v>
+          </cell>
+          <cell r="J3">
+            <v>4.67</v>
+          </cell>
+          <cell r="K3">
+            <v>5.66</v>
+          </cell>
+          <cell r="L3">
+            <v>4.79</v>
+          </cell>
+          <cell r="M3">
+            <v>5.08</v>
+          </cell>
+          <cell r="N3">
+            <v>4.07</v>
+          </cell>
+          <cell r="O3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="P3">
+            <v>5.27</v>
+          </cell>
+          <cell r="Q3">
+            <v>4.63</v>
+          </cell>
+          <cell r="R3">
+            <v>4.41</v>
+          </cell>
+          <cell r="S3">
+            <v>3.49</v>
+          </cell>
+          <cell r="T3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="V3">
+            <v>4.97</v>
+          </cell>
+          <cell r="W3">
+            <v>8.57</v>
+          </cell>
+          <cell r="X3">
+            <v>8.25</v>
+          </cell>
+          <cell r="Y3">
+            <v>6.83</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>12.52</v>
+          </cell>
+          <cell r="C4">
+            <v>12.79</v>
+          </cell>
+          <cell r="D4">
+            <v>12.21</v>
+          </cell>
+          <cell r="E4">
+            <v>9.5500000000000007</v>
+          </cell>
+          <cell r="F4">
+            <v>4.76</v>
+          </cell>
+          <cell r="G4">
+            <v>4.26</v>
+          </cell>
+          <cell r="H4">
+            <v>4.75</v>
+          </cell>
+          <cell r="I4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="J4">
+            <v>3.54</v>
+          </cell>
+          <cell r="K4">
+            <v>3.69</v>
+          </cell>
+          <cell r="L4">
+            <v>3.74</v>
+          </cell>
+          <cell r="M4">
+            <v>3.09</v>
+          </cell>
+          <cell r="N4">
+            <v>3.43</v>
+          </cell>
+          <cell r="O4">
+            <v>3.62</v>
+          </cell>
+          <cell r="P4">
+            <v>3.62</v>
+          </cell>
+          <cell r="Q4">
+            <v>3.28</v>
+          </cell>
+          <cell r="R4">
+            <v>1.79</v>
+          </cell>
+          <cell r="S4">
+            <v>1.79</v>
+          </cell>
+          <cell r="T4">
+            <v>1.47</v>
+          </cell>
+          <cell r="U4">
+            <v>2.23</v>
+          </cell>
+          <cell r="V4">
+            <v>2.17</v>
+          </cell>
+          <cell r="W4">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="X4">
+            <v>6.31</v>
+          </cell>
+          <cell r="Y4">
+            <v>7.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>42.153333333333336</v>
+          </cell>
+          <cell r="C2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="D2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="E2">
+            <v>51.303333333333335</v>
+          </cell>
+          <cell r="F2">
+            <v>44.726666666666667</v>
+          </cell>
+          <cell r="G2">
+            <v>53.636666666666677</v>
+          </cell>
+          <cell r="H2">
+            <v>52.483333333333327</v>
+          </cell>
+          <cell r="I2">
+            <v>40.266666666666673</v>
+          </cell>
+          <cell r="J2">
+            <v>40.466666666666669</v>
+          </cell>
+          <cell r="K2">
+            <v>59.133333333333333</v>
+          </cell>
+          <cell r="L2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="M2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="N2">
+            <v>59.5</v>
+          </cell>
+          <cell r="O2">
+            <v>59.5</v>
+          </cell>
+          <cell r="P2">
+            <v>44.09</v>
+          </cell>
+          <cell r="Q2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="R2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>41.06666666666667</v>
+          </cell>
+          <cell r="T2">
+            <v>40.866666666666667</v>
+          </cell>
+          <cell r="U2">
+            <v>44.09</v>
+          </cell>
+          <cell r="V2">
+            <v>40.6</v>
+          </cell>
+          <cell r="W2">
+            <v>45.860000000000007</v>
+          </cell>
+          <cell r="X2">
+            <v>37.6</v>
+          </cell>
+          <cell r="Y2">
+            <v>37.6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>36.216666666666669</v>
+          </cell>
+          <cell r="C3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="D3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="E3">
+            <v>45.351666666666667</v>
+          </cell>
+          <cell r="F3">
+            <v>40.36333333333333</v>
+          </cell>
+          <cell r="G3">
+            <v>61.338333333333338</v>
+          </cell>
+          <cell r="H3">
+            <v>60.76166666666667</v>
+          </cell>
+          <cell r="I3">
+            <v>39.833333333333336</v>
+          </cell>
+          <cell r="J3">
+            <v>40.233333333333334</v>
+          </cell>
+          <cell r="K3">
+            <v>49.266666666666666</v>
+          </cell>
+          <cell r="L3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="M3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="N3">
+            <v>49.45</v>
+          </cell>
+          <cell r="O3">
+            <v>49.45</v>
+          </cell>
+          <cell r="P3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.1</v>
+          </cell>
+          <cell r="R3">
+            <v>40.400000000000006</v>
+          </cell>
+          <cell r="S3">
+            <v>40.63333333333334</v>
+          </cell>
+          <cell r="T3">
+            <v>40.533333333333331</v>
+          </cell>
+          <cell r="U3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>40</v>
+          </cell>
+          <cell r="W3">
+            <v>42.63</v>
+          </cell>
+          <cell r="X3">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="Y3">
+            <v>38.799999999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>30.28</v>
+          </cell>
+          <cell r="C4">
+            <v>31.28</v>
+          </cell>
+          <cell r="D4">
+            <v>31.28</v>
+          </cell>
+          <cell r="E4">
+            <v>39.4</v>
+          </cell>
+          <cell r="F4">
+            <v>36</v>
+          </cell>
+          <cell r="G4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="H4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="I4">
+            <v>39.4</v>
+          </cell>
+          <cell r="J4">
+            <v>40</v>
+          </cell>
+          <cell r="K4">
+            <v>39.4</v>
+          </cell>
+          <cell r="L4">
+            <v>39.4</v>
+          </cell>
+          <cell r="M4">
+            <v>39.4</v>
+          </cell>
+          <cell r="N4">
+            <v>39.4</v>
+          </cell>
+          <cell r="O4">
+            <v>39.4</v>
+          </cell>
+          <cell r="P4">
+            <v>39.4</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.4</v>
+          </cell>
+          <cell r="R4">
+            <v>40</v>
+          </cell>
+          <cell r="S4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="T4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="U4">
+            <v>39.4</v>
+          </cell>
+          <cell r="V4">
+            <v>39.4</v>
+          </cell>
+          <cell r="W4">
+            <v>39.4</v>
+          </cell>
+          <cell r="X4">
+            <v>40</v>
+          </cell>
+          <cell r="Y4">
+            <v>40</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="B2">
+            <v>24.09</v>
+          </cell>
+          <cell r="C2">
+            <v>24.09</v>
+          </cell>
+          <cell r="D2">
+            <v>24.09</v>
+          </cell>
+          <cell r="E2">
+            <v>24.09</v>
+          </cell>
+          <cell r="F2">
+            <v>29.04</v>
+          </cell>
+          <cell r="G2">
+            <v>29.03</v>
+          </cell>
+          <cell r="H2">
+            <v>29.05</v>
+          </cell>
+          <cell r="I2">
+            <v>29.04</v>
+          </cell>
+          <cell r="J2">
+            <v>29.04</v>
+          </cell>
+          <cell r="K2">
+            <v>29.05</v>
+          </cell>
+          <cell r="L2">
+            <v>32</v>
+          </cell>
+          <cell r="M2">
+            <v>29.03</v>
+          </cell>
+          <cell r="N2">
+            <v>29.03</v>
+          </cell>
+          <cell r="O2">
+            <v>29.03</v>
+          </cell>
+          <cell r="P2">
+            <v>32</v>
+          </cell>
+          <cell r="Q2">
+            <v>29.01</v>
+          </cell>
+          <cell r="R2">
+            <v>32</v>
+          </cell>
+          <cell r="S2">
+            <v>29.01</v>
+          </cell>
+          <cell r="T2">
+            <v>29.01</v>
+          </cell>
+          <cell r="U2">
+            <v>29.01</v>
+          </cell>
+          <cell r="V2">
+            <v>29.01</v>
+          </cell>
+          <cell r="W2">
+            <v>29.01</v>
+          </cell>
+          <cell r="X2">
+            <v>29.01</v>
+          </cell>
+          <cell r="Y2">
+            <v>27.98</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="C3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="D3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>31.63</v>
+          </cell>
+          <cell r="G3">
+            <v>23.537500000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>29.28</v>
+          </cell>
+          <cell r="I3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="J3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="K3">
+            <v>30.950000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="M3">
+            <v>30.935000000000002</v>
+          </cell>
+          <cell r="N3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="O3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="P3">
+            <v>31.4925</v>
+          </cell>
+          <cell r="Q3">
+            <v>30.92</v>
+          </cell>
+          <cell r="R3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="S3">
+            <v>30.92</v>
+          </cell>
+          <cell r="T3">
+            <v>30.92</v>
+          </cell>
+          <cell r="U3">
+            <v>30.92</v>
+          </cell>
+          <cell r="V3">
+            <v>30.92</v>
+          </cell>
+          <cell r="W3">
+            <v>29.25</v>
+          </cell>
+          <cell r="X3">
+            <v>28.305</v>
+          </cell>
+          <cell r="Y3">
+            <v>27.532499999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="E4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="F4">
+            <v>34.22</v>
+          </cell>
+          <cell r="G4">
+            <v>18.045000000000002</v>
+          </cell>
+          <cell r="H4">
+            <v>29.509999999999998</v>
+          </cell>
+          <cell r="I4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="J4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="K4">
+            <v>32.85</v>
+          </cell>
+          <cell r="L4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="M4">
+            <v>32.840000000000003</v>
+          </cell>
+          <cell r="N4">
+            <v>29.5</v>
+          </cell>
+          <cell r="O4">
+            <v>29.5</v>
+          </cell>
+          <cell r="P4">
+            <v>30.984999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>32.83</v>
+          </cell>
+          <cell r="R4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>32.83</v>
+          </cell>
+          <cell r="T4">
+            <v>32.83</v>
+          </cell>
+          <cell r="U4">
+            <v>32.83</v>
+          </cell>
+          <cell r="V4">
+            <v>32.83</v>
+          </cell>
+          <cell r="W4">
+            <v>29.490000000000002</v>
+          </cell>
+          <cell r="X4">
+            <v>27.6</v>
+          </cell>
+          <cell r="Y4">
+            <v>27.085000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2748,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>
@@ -2797,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
         <v>1.1048955771867275</v>
       </c>
     </row>
@@ -2806,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -2815,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -2824,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -2833,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
         <v>1.4859473959783542</v>
       </c>
     </row>
@@ -2935,99 +2929,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
         <v>62.63763589847423</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
         <v>63.132951697133684</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
         <v>63.132951697133684</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
         <v>76.234054571676168</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
         <v>66.461473864125196</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
         <v>79.701265162292344</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
         <v>77.987472498930615</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
         <v>59.834148478061742</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
         <v>60.131337957257401</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
         <v>87.869022682186682</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
         <v>60.676185335782804</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
         <v>60.676185335782804</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
         <v>88.413870060712071</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
         <v>88.413870060712071</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
         <v>65.515420688685637</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
         <v>60.626653755916863</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
         <v>60.626653755916863</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
         <v>61.022906394844419</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
         <v>60.725716915648746</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
         <v>65.515420688685637</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
         <v>60.329464276721183</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
         <v>68.145547579567335</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
         <v>55.871622088786118</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
         <v>55.871622088786118</v>
       </c>
     </row>
@@ -3036,99 +3030,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
         <v>53.816061524349401</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
         <v>54.80669312166831</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
         <v>54.80669312166831</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
         <v>67.390190986611657</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
         <v>59.977790059672969</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
         <v>91.145536690318963</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
         <v>90.288640358638105</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
         <v>59.190237939804447</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
         <v>59.784616898195786</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
         <v>73.207675041866921</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
         <v>59.611256368664975</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
         <v>59.611256368664975</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
         <v>73.480098731129615</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
         <v>73.480098731129615</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
         <v>62.030874045116406</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
         <v>59.586490578732004</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
         <v>60.032274797525517</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
         <v>60.378995856587139</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
         <v>60.230401116989292</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
         <v>62.030874045116406</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
         <v>59.437895839134171</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
         <v>63.345937490557247</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
         <v>57.654758963960141</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
         <v>57.654758963960141</v>
       </c>
     </row>
@@ -3137,99 +3131,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
         <v>44.994487150224565</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
         <v>46.480434546202922</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
         <v>46.480434546202922</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
         <v>53.49410625522075</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
         <v>102.58980821834558</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
         <v>102.58980821834558</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
         <v>59.437895839134171</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
         <v>59.437895839134171</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
         <v>59.735085318329844</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
         <v>59.735085318329844</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
         <v>58.546327401547153</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
         <v>59.437895839134171</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
         <v>59.437895839134171</v>
       </c>
     </row>
@@ -3382,99 +3376,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
         <v>35.796472769118552</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
         <v>35.796472769118552</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
         <v>35.796472769118552</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
         <v>35.796472769118552</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
         <v>43.151912379211403</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
         <v>43.137052905251622</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
         <v>43.166771853171191</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
         <v>43.151912379211403</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
         <v>43.151912379211403</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
         <v>43.166771853171191</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
         <v>47.550316671307336</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
         <v>43.137052905251622</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
         <v>43.137052905251622</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
         <v>43.137052905251622</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
         <v>47.550316671307336</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
         <v>43.10733395733206</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
         <v>47.550316671307336</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
         <v>43.10733395733206</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
         <v>43.10733395733206</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
         <v>43.10733395733206</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
         <v>43.10733395733206</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
         <v>43.10733395733206</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
         <v>43.10733395733206</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
         <v>41.576808139474352</v>
       </c>
     </row>
@@ -3483,99 +3477,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
         <v>41.4839364272257</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
         <v>41.4839364272257</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
         <v>41.4839364272257</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
         <v>41.4839364272257</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
         <v>47.00051613479534</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
         <v>34.975486832840517</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
         <v>43.508539754246215</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
         <v>39.99798903124735</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
         <v>39.99798903124735</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
         <v>45.990071905530066</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
         <v>49.277730519132177</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
         <v>45.96778269459039</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
         <v>43.486250543306539</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
         <v>43.486250543306539</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
         <v>46.796198367848319</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
         <v>45.945493483650715</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
         <v>49.277730519132177</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
         <v>45.945493483650715</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
         <v>45.945493483650715</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
         <v>45.945493483650715</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
         <v>45.945493483650715</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
         <v>43.463961332366864</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
         <v>42.059741043167314</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
         <v>40.911846679774037</v>
       </c>
     </row>
@@ -3584,99 +3578,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
         <v>47.171400085332849</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
         <v>47.171400085332849</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
         <v>47.171400085332849</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
         <v>47.171400085332849</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
         <v>50.849119890379278</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
         <v>26.813920760429404</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
         <v>43.850307655321231</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
         <v>36.844065683283297</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
         <v>36.844065683283297</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
         <v>48.81337195788894</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
         <v>51.005144366957012</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
         <v>48.798512483929159</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
         <v>43.83544818136145</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
         <v>43.83544818136145</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
         <v>46.042080064389303</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
         <v>48.78365300996937</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
         <v>51.005144366957012</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
         <v>48.78365300996937</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
         <v>48.78365300996937</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
         <v>48.78365300996937</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
         <v>48.78365300996937</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
         <v>43.820588707401669</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
         <v>41.012148129002576</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
         <v>40.246885220073729</v>
       </c>
     </row>
@@ -3829,99 +3823,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B2*Scenarios!$B$6</f>
         <v>48.294985678831857</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C2*Scenarios!$B$6</f>
         <v>45.063166115560676</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D2*Scenarios!$B$6</f>
         <v>43.148934528084666</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E2*Scenarios!$B$6</f>
         <v>40.464038275520927</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F2*Scenarios!$B$6</f>
         <v>41.671136693597433</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G2*Scenarios!$B$6</f>
         <v>45.018970292473213</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H2*Scenarios!$B$6</f>
         <v>54.465827477419737</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I2*Scenarios!$B$6</f>
         <v>57.001562827063275</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J2*Scenarios!$B$6</f>
         <v>59.940585062379967</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K2*Scenarios!$B$6</f>
         <v>59.484815636790437</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L2*Scenarios!$B$6</f>
         <v>58.338486475459213</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M2*Scenarios!$B$6</f>
         <v>58.053975864333623</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N2*Scenarios!$B$6</f>
         <v>55.805513364758632</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O2*Scenarios!$B$6</f>
         <v>55.018275266013099</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P2*Scenarios!$B$6</f>
         <v>53.93823983931307</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q2*Scenarios!$B$6</f>
         <v>54.045967158088771</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R2*Scenarios!$B$6</f>
         <v>54.880163318864753</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S2*Scenarios!$B$6</f>
         <v>57.592681960858172</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T2*Scenarios!$B$6</f>
         <v>60.349396425939062</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U2*Scenarios!$B$6</f>
         <v>60.813452568357491</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V2*Scenarios!$B$6</f>
         <v>59.410235185330329</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W2*Scenarios!$B$6</f>
         <v>55.678450373382162</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X2*Scenarios!$B$6</f>
         <v>50.253413089395337</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y2*Scenarios!$B$6</f>
         <v>47.167992190101394</v>
       </c>
     </row>
@@ -3930,99 +3924,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B3*Scenarios!$B$6</f>
         <v>45.101837460762219</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C3*Scenarios!$B$6</f>
         <v>42.571626589004609</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D3*Scenarios!$B$6</f>
         <v>39.814912123923719</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E3*Scenarios!$B$6</f>
         <v>38.036030244653091</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F3*Scenarios!$B$6</f>
         <v>40.151905274965678</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G3*Scenarios!$B$6</f>
         <v>42.295402694707931</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H3*Scenarios!$B$6</f>
         <v>48.836384511653357</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I3*Scenarios!$B$6</f>
         <v>51.013028798711211</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J3*Scenarios!$B$6</f>
         <v>53.565337582012553</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K3*Scenarios!$B$6</f>
         <v>53.924428644598237</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L3*Scenarios!$B$6</f>
         <v>52.372050358650888</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M3*Scenarios!$B$6</f>
         <v>51.294777170893823</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N3*Scenarios!$B$6</f>
         <v>49.725825451288664</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O3*Scenarios!$B$6</f>
         <v>49.201000052124975</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P3*Scenarios!$B$6</f>
         <v>47.007782331409324</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q3*Scenarios!$B$6</f>
         <v>46.637642313051771</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R3*Scenarios!$B$6</f>
         <v>47.598901465204221</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S3*Scenarios!$B$6</f>
         <v>52.482539916369554</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T3*Scenarios!$B$6</f>
         <v>54.946457053495962</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U3*Scenarios!$B$6</f>
         <v>55.80827560370161</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V3*Scenarios!$B$6</f>
         <v>56.117646365313888</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W3*Scenarios!$B$6</f>
         <v>53.626106838757813</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X3*Scenarios!$B$6</f>
         <v>48.565685095242607</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y3*Scenarios!$B$6</f>
         <v>46.085194524458402</v>
       </c>
     </row>
@@ -4031,99 +4025,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B4*Scenarios!$B$6</f>
         <v>51.488133896901502</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C4*Scenarios!$B$6</f>
         <v>47.554705642116751</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D4*Scenarios!$B$6</f>
         <v>46.482956932245628</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E4*Scenarios!$B$6</f>
         <v>42.892046306388764</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F4*Scenarios!$B$6</f>
         <v>43.19036811222918</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G4*Scenarios!$B$6</f>
         <v>47.742537890238495</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H4*Scenarios!$B$6</f>
         <v>60.095270443186109</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I4*Scenarios!$B$6</f>
         <v>62.990096855415331</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J4*Scenarios!$B$6</f>
         <v>66.315832542747387</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K4*Scenarios!$B$6</f>
         <v>65.045202628982651</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L4*Scenarios!$B$6</f>
         <v>64.304922592267545</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M4*Scenarios!$B$6</f>
         <v>64.813174557773436</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N4*Scenarios!$B$6</f>
         <v>61.885201278228607</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O4*Scenarios!$B$6</f>
         <v>60.835550479901215</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P4*Scenarios!$B$6</f>
         <v>60.868697347216823</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q4*Scenarios!$B$6</f>
         <v>61.454292003125779</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R4*Scenarios!$B$6</f>
         <v>62.161425172525284</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S4*Scenarios!$B$6</f>
         <v>62.702824005346784</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T4*Scenarios!$B$6</f>
         <v>65.752335798382148</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U4*Scenarios!$B$6</f>
         <v>65.81862953301335</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V4*Scenarios!$B$6</f>
         <v>62.702824005346784</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W4*Scenarios!$B$6</f>
         <v>57.730793908006511</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X4*Scenarios!$B$6</f>
         <v>51.941141083548054</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y4*Scenarios!$B$6</f>
         <v>48.250789855744394</v>
       </c>
     </row>
@@ -4277,99 +4271,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B2*Scenarios!$B$6</f>
         <v>57.953982814598227</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C2*Scenarios!$B$6</f>
         <v>54.075799338672809</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D2*Scenarios!$B$6</f>
         <v>51.778721433701612</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E2*Scenarios!$B$6</f>
         <v>48.556845930625116</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F2*Scenarios!$B$6</f>
         <v>50.005364032316912</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G2*Scenarios!$B$6</f>
         <v>54.022764350967861</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H2*Scenarios!$B$6</f>
         <v>65.358992972903664</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I2*Scenarios!$B$6</f>
         <v>68.40187539247593</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J2*Scenarios!$B$6</f>
         <v>71.928702074855948</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K2*Scenarios!$B$6</f>
         <v>71.381778764148521</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L2*Scenarios!$B$6</f>
         <v>70.006183770551075</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M2*Scenarios!$B$6</f>
         <v>69.664771037200353</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N2*Scenarios!$B$6</f>
         <v>66.966616037710352</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O2*Scenarios!$B$6</f>
         <v>66.021930319215699</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P2*Scenarios!$B$6</f>
         <v>64.725887807175681</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
         <v>64.855160589706529</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R2*Scenarios!$B$6</f>
         <v>65.856195982637701</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S2*Scenarios!$B$6</f>
         <v>69.111218353029798</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T2*Scenarios!$B$6</f>
         <v>72.419275711126858</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U2*Scenarios!$B$6</f>
         <v>72.976143082028983</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V2*Scenarios!$B$6</f>
         <v>71.292282222396409</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W2*Scenarios!$B$6</f>
         <v>66.814140448058595</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X2*Scenarios!$B$6</f>
         <v>60.304095707274392</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
         <v>56.60159062812167</v>
       </c>
     </row>
@@ -4378,99 +4372,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B3*Scenarios!$B$6</f>
         <v>57.953982814598227</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C3*Scenarios!$B$6</f>
         <v>54.075799338672809</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D3*Scenarios!$B$6</f>
         <v>51.778721433701612</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E3*Scenarios!$B$6</f>
         <v>48.556845930625116</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F3*Scenarios!$B$6</f>
         <v>50.005364032316912</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G3*Scenarios!$B$6</f>
         <v>54.022764350967861</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H3*Scenarios!$B$6</f>
         <v>65.358992972903664</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I3*Scenarios!$B$6</f>
         <v>68.40187539247593</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J3*Scenarios!$B$6</f>
         <v>71.928702074855948</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K3*Scenarios!$B$6</f>
         <v>71.381778764148521</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L3*Scenarios!$B$6</f>
         <v>70.006183770551075</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M3*Scenarios!$B$6</f>
         <v>69.664771037200353</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N3*Scenarios!$B$6</f>
         <v>66.966616037710352</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O3*Scenarios!$B$6</f>
         <v>66.021930319215699</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P3*Scenarios!$B$6</f>
         <v>64.725887807175681</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
         <v>64.855160589706529</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R3*Scenarios!$B$6</f>
         <v>65.856195982637701</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S3*Scenarios!$B$6</f>
         <v>69.111218353029798</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T3*Scenarios!$B$6</f>
         <v>72.419275711126858</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U3*Scenarios!$B$6</f>
         <v>72.976143082028983</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V3*Scenarios!$B$6</f>
         <v>71.292282222396409</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W3*Scenarios!$B$6</f>
         <v>66.814140448058595</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X3*Scenarios!$B$6</f>
         <v>60.304095707274392</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
         <v>56.60159062812167</v>
       </c>
     </row>
@@ -4479,99 +4473,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B4*Scenarios!$B$6</f>
         <v>57.953982814598227</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C4*Scenarios!$B$6</f>
         <v>54.075799338672809</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D4*Scenarios!$B$6</f>
         <v>51.778721433701612</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E4*Scenarios!$B$6</f>
         <v>48.556845930625116</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F4*Scenarios!$B$6</f>
         <v>50.005364032316912</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G4*Scenarios!$B$6</f>
         <v>54.022764350967861</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H4*Scenarios!$B$6</f>
         <v>65.358992972903664</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I4*Scenarios!$B$6</f>
         <v>68.40187539247593</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J4*Scenarios!$B$6</f>
         <v>71.928702074855948</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K4*Scenarios!$B$6</f>
         <v>71.381778764148521</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L4*Scenarios!$B$6</f>
         <v>70.006183770551075</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M4*Scenarios!$B$6</f>
         <v>69.664771037200353</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N4*Scenarios!$B$6</f>
         <v>66.966616037710352</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O4*Scenarios!$B$6</f>
         <v>66.021930319215699</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P4*Scenarios!$B$6</f>
         <v>64.725887807175681</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
         <v>64.855160589706529</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R4*Scenarios!$B$6</f>
         <v>65.856195982637701</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S4*Scenarios!$B$6</f>
         <v>69.111218353029798</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T4*Scenarios!$B$6</f>
         <v>72.419275711126858</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U4*Scenarios!$B$6</f>
         <v>72.976143082028983</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V4*Scenarios!$B$6</f>
         <v>71.292282222396409</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W4*Scenarios!$B$6</f>
         <v>66.814140448058595</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X4*Scenarios!$B$6</f>
         <v>60.304095707274392</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
         <v>56.60159062812167</v>
       </c>
     </row>
@@ -4725,99 +4719,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
         <v>37.65728754441735</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
         <v>36.546660741715208</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
         <v>41.248736958521761</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
         <v>45.395321460289729</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
         <v>47.736067525541614</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
         <v>43.629696475177305</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
         <v>40.416580412694451</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
         <v>43.767298918913397</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
         <v>38.273324186105071</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
         <v>34.700155639839686</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
         <v>34.145288022707405</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
         <v>30.119355019755901</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
         <v>33.507816589832686</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
         <v>27.851706421780687</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
         <v>29.115653276799868</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
         <v>24.03140996409013</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
         <v>18.95814408776819</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
         <v>22.097731758229539</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
         <v>14.987057403202245</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
         <v>13.037293816780187</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
         <v>14.620169561398209</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
         <v>20.419517628685547</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
         <v>23.949500828755319</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
         <v>21.15277323070503</v>
       </c>
     </row>
@@ -4826,99 +4820,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
         <v>30.224170034199727</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
         <v>31.784414799976997</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
         <v>43.519684359716045</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
         <v>49.337168414971309</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
         <v>53.694709153677827</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
         <v>53.371515595052543</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
         <v>53.003743614547901</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
         <v>55.555858267140721</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
         <v>51.71096938004672</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
         <v>44.689867934049005</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
         <v>45.960352957610496</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
         <v>37.590754249762412</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
         <v>42.839863426055949</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
         <v>31.962728487494395</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
         <v>33.656708518909724</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
         <v>30.224170034199727</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
         <v>20.272037349634701</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
         <v>25.275965205591802</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
         <v>16.516305306299408</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
         <v>14.487987110788954</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
         <v>16.170822536734441</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
         <v>18.990407720603365</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
         <v>20.294326560574373</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
         <v>15.60244765777272</v>
       </c>
     </row>
@@ -4927,99 +4921,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
         <v>41.503996717071409</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
         <v>39.179974989761263</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
         <v>41.529257822803046</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
         <v>41.453474505608149</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
         <v>42.741790897921383</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
         <v>35.668681293064409</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
         <v>31.197465578565545</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
         <v>29.429188177351307</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
         <v>26.397855489555457</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
         <v>24.023311550782051</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
         <v>19.703662470672977</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
         <v>19.779445787867875</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
         <v>21.59824540054538</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
         <v>21.59824540054538</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
         <v>23.998050445050417</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
         <v>18.819523770065857</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
         <v>15.838713293733276</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
         <v>17.63225180067915</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
         <v>13.161036086180282</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
         <v>12.958947240327227</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
         <v>13.666258200812923</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
         <v>23.998050445050417</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
         <v>27.130427555772791</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
         <v>27.130427555772791</v>
       </c>
     </row>
@@ -5198,99 +5192,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
         <v>74.312229272877488</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
         <v>66.867632819025943</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
         <v>72.811422402939357</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
         <v>55.440697343952401</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
         <v>55.440697343952401</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
         <v>71.325475006961</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
         <v>74.312229272877488</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
         <v>74.312229272877488</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
         <v>71.325475006961</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
         <v>69.661213923465255</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
         <v>71.147161319443612</v>
       </c>
     </row>
@@ -5299,99 +5293,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
         <v>70.835112366288143</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
         <v>48.204133525537806</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
         <v>48.204133525537806</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
         <v>48.204133525537806</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
         <v>48.204133525537806</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
         <v>48.204133525537806</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
         <v>48.204133525537806</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
         <v>48.204133525537806</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
         <v>70.835112366288143</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
         <v>54.147923109451227</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
         <v>55.633870505429577</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
         <v>55.633870505429577</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
         <v>55.633870505429577</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
         <v>55.633870505429577</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
         <v>55.633870505429577</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
         <v>60.463199542359227</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
         <v>70.835112366288143</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
         <v>65.976064381438931</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
         <v>65.976064381438931</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
         <v>65.976064381438931</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
         <v>65.976064381438931</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
         <v>70.835112366288143</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
         <v>70.835112366288143</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
         <v>66.867632819025943</v>
       </c>
     </row>
@@ -5400,99 +5394,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
         <v>84.684142096806411</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
         <v>84.684142096806411</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
         <v>84.684142096806411</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
         <v>84.684142096806411</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
         <v>89.082546388902344</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
         <v>89.082546388902344</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
         <v>89.082546388902344</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
         <v>89.082546388902344</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
         <v>89.082546388902344</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
         <v>81.727106778809485</v>
       </c>
     </row>
@@ -5645,99 +5639,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
         <v>38.590053873557856</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
         <v>38.590053873557856</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
         <v>37.163544373418645</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
         <v>37.104106477579506</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
         <v>44.206935030356036</v>
       </c>
     </row>
@@ -5746,99 +5740,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
         <v>42.141468149946128</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
         <v>42.141468149946128</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
         <v>40.469777329470475</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
         <v>42.8844418479353</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
         <v>42.8844418479353</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
         <v>42.141468149946128</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
         <v>55.462986554892076</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
         <v>45.692882426334393</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
         <v>48.263571421376952</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
         <v>51.82984517172499</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
         <v>48.278430895336719</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
         <v>48.278430895336719</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
         <v>48.263571421376952</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
         <v>48.293290369296514</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
         <v>48.263571421376952</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
         <v>48.263571421376952</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
         <v>51.837274908704892</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
         <v>54.794310226701811</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
         <v>54.794310226701811</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
         <v>54.794310226701811</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
         <v>54.794310226701811</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
         <v>52.557959395754395</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
         <v>45.692882426334393</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
         <v>45.692882426334393</v>
       </c>
     </row>
@@ -5847,99 +5841,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
         <v>43.83544818136145</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
         <v>66.719038079428103</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
         <v>59.42303636517439</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
         <v>59.452755313093952</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
         <v>59.452755313093952</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
         <v>59.452755313093952</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
         <v>59.42303636517439</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
         <v>59.42303636517439</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
         <v>59.42303636517439</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
         <v>59.42303636517439</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
         <v>59.467614787053741</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
         <v>65.381685423047585</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
         <v>65.381685423047585</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
         <v>65.381685423047585</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
         <v>65.381685423047585</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
         <v>60.90898376115274</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
         <v>47.17882982231275</v>
       </c>
     </row>
@@ -6092,99 +6086,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B2*Scenarios!$B$6</f>
         <v>41.179458161749338</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C2*Scenarios!$B$6</f>
         <v>37.577498580120597</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D2*Scenarios!$B$6</f>
         <v>35.986448948971713</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E2*Scenarios!$B$6</f>
         <v>35.334560558431548</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F2*Scenarios!$B$6</f>
         <v>35.50029489500956</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G2*Scenarios!$B$6</f>
         <v>40.185052142281279</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H2*Scenarios!$B$6</f>
         <v>41.886591331148836</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I2*Scenarios!$B$6</f>
         <v>41.886591331148836</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J2*Scenarios!$B$6</f>
         <v>44.019039795119227</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K2*Scenarios!$B$6</f>
         <v>44.129529352837892</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L2*Scenarios!$B$6</f>
         <v>44.019039795119227</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M2*Scenarios!$B$6</f>
         <v>44.206872043240963</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N2*Scenarios!$B$6</f>
         <v>43.57708156424453</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O2*Scenarios!$B$6</f>
         <v>43.300857669947845</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P2*Scenarios!$B$6</f>
         <v>42.394843296654727</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q2*Scenarios!$B$6</f>
         <v>41.09106651557439</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R2*Scenarios!$B$6</f>
         <v>38.649247289991727</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S2*Scenarios!$B$6</f>
         <v>41.289947719468003</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T2*Scenarios!$B$6</f>
         <v>42.869948394845025</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U2*Scenarios!$B$6</f>
         <v>44.085333529750422</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V2*Scenarios!$B$6</f>
         <v>43.13512333336984</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W2*Scenarios!$B$6</f>
         <v>44.019039795119227</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X2*Scenarios!$B$6</f>
         <v>43.930648148944286</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y2*Scenarios!$B$6</f>
         <v>42.140717313901789</v>
       </c>
     </row>
@@ -6193,99 +6187,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B3*Scenarios!$B$6</f>
         <v>43.842256502769345</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C3*Scenarios!$B$6</f>
         <v>38.671345201535459</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D3*Scenarios!$B$6</f>
         <v>42.207011048532991</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E3*Scenarios!$B$6</f>
         <v>40.770646798190242</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F3*Scenarios!$B$6</f>
         <v>41.555122657992818</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G3*Scenarios!$B$6</f>
         <v>42.207011048532991</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H3*Scenarios!$B$6</f>
         <v>41.113164427118129</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I3*Scenarios!$B$6</f>
         <v>44.394704291362707</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J3*Scenarios!$B$6</f>
         <v>47.333726526679406</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K3*Scenarios!$B$6</f>
         <v>47.543656686344882</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L3*Scenarios!$B$6</f>
         <v>48.00771282876331</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M3*Scenarios!$B$6</f>
         <v>48.913727202056428</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N3*Scenarios!$B$6</f>
         <v>49.687154106087135</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O3*Scenarios!$B$6</f>
         <v>50.97988193139561</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P3*Scenarios!$B$6</f>
         <v>49.046314671318832</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q3*Scenarios!$B$6</f>
         <v>47.52155877480115</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R3*Scenarios!$B$6</f>
         <v>47.355824438223138</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S3*Scenarios!$B$6</f>
         <v>48.317083590375589</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T3*Scenarios!$B$6</f>
         <v>48.582258528900404</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U3*Scenarios!$B$6</f>
         <v>49.609811415684064</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V3*Scenarios!$B$6</f>
         <v>50.217503983136766</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W3*Scenarios!$B$6</f>
         <v>50.990930887167472</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X3*Scenarios!$B$6</f>
         <v>49.687154106087135</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y3*Scenarios!$B$6</f>
         <v>46.958062030435919</v>
       </c>
     </row>
@@ -6294,99 +6288,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B4*Scenarios!$B$6</f>
         <v>36.892463322264831</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C4*Scenarios!$B$6</f>
         <v>34.052881688894942</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D4*Scenarios!$B$6</f>
         <v>31.920433224924558</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E4*Scenarios!$B$6</f>
         <v>31.412181259418663</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F4*Scenarios!$B$6</f>
         <v>32.494978925061659</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G4*Scenarios!$B$6</f>
         <v>37.997358899451562</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H4*Scenarios!$B$6</f>
         <v>49.985475911927551</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I4*Scenarios!$B$6</f>
         <v>47.422118172854347</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J4*Scenarios!$B$6</f>
         <v>49.587713504140332</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K4*Scenarios!$B$6</f>
         <v>48.946874069372022</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L4*Scenarios!$B$6</f>
         <v>45.367012399287034</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M4*Scenarios!$B$6</f>
         <v>44.085333529750422</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N4*Scenarios!$B$6</f>
         <v>48.814286600109618</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O4*Scenarios!$B$6</f>
         <v>49.919182177296349</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P4*Scenarios!$B$6</f>
         <v>49.587713504140332</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q4*Scenarios!$B$6</f>
         <v>49.002118848231369</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R4*Scenarios!$B$6</f>
         <v>49.002118848231369</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S4*Scenarios!$B$6</f>
         <v>49.587713504140332</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T4*Scenarios!$B$6</f>
         <v>51.024077754483073</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U4*Scenarios!$B$6</f>
         <v>52.902400235700512</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V4*Scenarios!$B$6</f>
         <v>56.548555640416716</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W4*Scenarios!$B$6</f>
         <v>61.531634693528851</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X4*Scenarios!$B$6</f>
         <v>56.095548453770157</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y4*Scenarios!$B$6</f>
         <v>49.720300973402736</v>
       </c>
     </row>
@@ -6540,99 +6534,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B2*Scenarios!$B$6</f>
         <v>48.765671194713406</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C2*Scenarios!$B$6</f>
         <v>44.120690188220394</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D2*Scenarios!$B$6</f>
         <v>44.045557288971708</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E2*Scenarios!$B$6</f>
         <v>43.006955446416178</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F2*Scenarios!$B$6</f>
         <v>43.820158591225614</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G2*Scenarios!$B$6</f>
         <v>48.155768836106326</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H2*Scenarios!$B$6</f>
         <v>53.194092668077815</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I2*Scenarios!$B$6</f>
         <v>53.481365518146355</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J2*Scenarios!$B$6</f>
         <v>56.376191930375583</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K2*Scenarios!$B$6</f>
         <v>56.248024043421914</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L2*Scenarios!$B$6</f>
         <v>54.957506009267824</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M2*Scenarios!$B$6</f>
         <v>54.882373110019131</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N2*Scenarios!$B$6</f>
         <v>56.831408908176513</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O2*Scenarios!$B$6</f>
         <v>57.679968711455913</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P2*Scenarios!$B$6</f>
         <v>56.411548588845548</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
         <v>55.045897655442751</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R2*Scenarios!$B$6</f>
         <v>54.002876230578487</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S2*Scenarios!$B$6</f>
         <v>55.67789792559357</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T2*Scenarios!$B$6</f>
         <v>56.990513871291391</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U2*Scenarios!$B$6</f>
         <v>58.639018072453993</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V2*Scenarios!$B$6</f>
         <v>59.960473182769327</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W2*Scenarios!$B$6</f>
         <v>62.616642150326214</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X2*Scenarios!$B$6</f>
         <v>59.885340283520627</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
         <v>55.527632127096176</v>
       </c>
     </row>
@@ -6641,99 +6635,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B3*Scenarios!$B$6</f>
         <v>48.765671194713406</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C3*Scenarios!$B$6</f>
         <v>44.120690188220394</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D3*Scenarios!$B$6</f>
         <v>44.045557288971708</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E3*Scenarios!$B$6</f>
         <v>43.006955446416178</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F3*Scenarios!$B$6</f>
         <v>43.820158591225614</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G3*Scenarios!$B$6</f>
         <v>48.155768836106326</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H3*Scenarios!$B$6</f>
         <v>53.194092668077815</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I3*Scenarios!$B$6</f>
         <v>53.481365518146355</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J3*Scenarios!$B$6</f>
         <v>56.376191930375583</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K3*Scenarios!$B$6</f>
         <v>56.248024043421914</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L3*Scenarios!$B$6</f>
         <v>54.957506009267824</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M3*Scenarios!$B$6</f>
         <v>54.882373110019131</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N3*Scenarios!$B$6</f>
         <v>56.831408908176513</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O3*Scenarios!$B$6</f>
         <v>57.679968711455913</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P3*Scenarios!$B$6</f>
         <v>56.411548588845548</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
         <v>55.045897655442751</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R3*Scenarios!$B$6</f>
         <v>54.002876230578487</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S3*Scenarios!$B$6</f>
         <v>55.67789792559357</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T3*Scenarios!$B$6</f>
         <v>56.990513871291391</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U3*Scenarios!$B$6</f>
         <v>58.639018072453993</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V3*Scenarios!$B$6</f>
         <v>59.960473182769327</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W3*Scenarios!$B$6</f>
         <v>62.616642150326214</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X3*Scenarios!$B$6</f>
         <v>59.885340283520627</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
         <v>55.527632127096176</v>
       </c>
     </row>
@@ -6742,99 +6736,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B4*Scenarios!$B$6</f>
         <v>48.765671194713406</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C4*Scenarios!$B$6</f>
         <v>44.120690188220394</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D4*Scenarios!$B$6</f>
         <v>44.045557288971708</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E4*Scenarios!$B$6</f>
         <v>43.006955446416178</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F4*Scenarios!$B$6</f>
         <v>43.820158591225614</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G4*Scenarios!$B$6</f>
         <v>48.155768836106326</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H4*Scenarios!$B$6</f>
         <v>53.194092668077815</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I4*Scenarios!$B$6</f>
         <v>53.481365518146355</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J4*Scenarios!$B$6</f>
         <v>56.376191930375583</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K4*Scenarios!$B$6</f>
         <v>56.248024043421914</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L4*Scenarios!$B$6</f>
         <v>54.957506009267824</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M4*Scenarios!$B$6</f>
         <v>54.882373110019131</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N4*Scenarios!$B$6</f>
         <v>56.831408908176513</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O4*Scenarios!$B$6</f>
         <v>57.679968711455913</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P4*Scenarios!$B$6</f>
         <v>56.411548588845548</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
         <v>55.045897655442751</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R4*Scenarios!$B$6</f>
         <v>54.002876230578487</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S4*Scenarios!$B$6</f>
         <v>55.67789792559357</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T4*Scenarios!$B$6</f>
         <v>56.990513871291391</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U4*Scenarios!$B$6</f>
         <v>58.639018072453993</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V4*Scenarios!$B$6</f>
         <v>59.960473182769327</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W4*Scenarios!$B$6</f>
         <v>62.616642150326214</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X4*Scenarios!$B$6</f>
         <v>59.885340283520627</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
         <v>55.527632127096176</v>
       </c>
     </row>
@@ -6988,99 +6982,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
         <v>15.245820282737915</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
         <v>16.210943116425856</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
         <v>14.985556596332305</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
         <v>13.039188399710058</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
         <v>11.826358135112526</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
         <v>9.4076072613087582</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
         <v>8.4801531941088708</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
         <v>7.2707406085220869</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
         <v>5.9778177792813212</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
         <v>6.6689319131508533</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
         <v>6.2741899874092049</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
         <v>6.0093941614458615</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
         <v>5.4608566802204512</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
         <v>6.227902726024479</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
         <v>6.6710865368750234</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
         <v>5.9356911706053346</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
         <v>4.4221794504315826</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
         <v>3.8052140916213695</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
         <v>4.4787940462183577</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
         <v>3.2983574348531524</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
         <v>5.4109288477155788</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
         <v>10.078512510592986</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
         <v>11.250404924431315</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
         <v>10.25534025071441</v>
       </c>
     </row>
@@ -7089,99 +7083,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
         <v>11.887579167826834</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
         <v>11.872719693867051</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
         <v>11.530951792792029</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
         <v>11.887579167826834</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
         <v>16.345421355761896</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
         <v>12.675131287695361</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
         <v>9.5695012301006024</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
         <v>6.9988122350580486</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
         <v>6.9393743392189142</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
         <v>8.4104622612374857</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
         <v>7.1176880267363165</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
         <v>7.5486127715700393</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
         <v>6.0478059016319019</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
         <v>6.5976064381438935</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
         <v>7.8309427768059265</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
         <v>6.8799364433797798</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
         <v>6.553028016264542</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
         <v>5.1859564119644563</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
         <v>6.5976064381438935</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
         <v>3.4176790107502146</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
         <v>7.3851585580124199</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
         <v>12.734569183534497</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
         <v>12.259066016821423</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
         <v>10.14902071453216</v>
       </c>
     </row>
@@ -7190,99 +7184,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
         <v>18.604061397648994</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
         <v>19.00526719456315</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
         <v>18.143417704895707</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
         <v>14.190797631593284</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
         <v>7.0731096048569659</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
         <v>6.3301359068677892</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
         <v>7.058250130897183</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
         <v>6.8502174954602131</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
         <v>5.2602537817633737</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
         <v>5.4831458911601274</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
         <v>5.5574432609590447</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
         <v>4.5915774535731142</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
         <v>5.0967995682057552</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
         <v>5.3791295734416424</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
         <v>5.3791295734416424</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
         <v>4.8739074588090014</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
         <v>2.659845838801254</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
         <v>2.659845838801254</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
         <v>2.1843426720881807</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
         <v>3.3136626930317301</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
         <v>3.2245058492730285</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
         <v>6.8353580215004293</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
         <v>9.3763280686234154</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
         <v>10.996010730239822</v>
       </c>
     </row>

--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E3E65-D933-42A7-8138-FC4E079271EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AA80C2-E21C-447F-AD74-12700D0BA455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25215" yWindow="4380" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="4620" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,16 +2755,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AA80C2-E21C-447F-AD74-12700D0BA455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87DA20-C825-45D8-AC8E-8148637F214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="4620" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87DA20-C825-45D8-AC8E-8148637F214A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B056A838-DAF5-4DCE-8A17-03937036DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2040.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B056A838-DAF5-4DCE-8A17-03937036DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E67B0-4F38-4732-8495-8B71F347210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
